--- a/806209426/localisation/excel/theater_l_german.xlsx
+++ b/806209426/localisation/excel/theater_l_german.xlsx
@@ -20,480 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t xml:space="preserve">l_german:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALERT_LOW_SUPPLY:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RSupply shortage!§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ACTIVATE_PHASE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activate phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_DETACH:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split up advance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_DEFENSIVE_LINE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign Front Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_OFFENSIVE_LINE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offensive Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PARADROP:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_AREA_DEFENSE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_INVASION:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naval Invasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_BOMB:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tactical Bombing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_BLITZ:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blitz Advance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_AIR_SUPPORT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_REMOVE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel selected operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_PARADROP_SOURCE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GClick§! to select the §Yparadrop source§!.\n§gLocation must have an airbase with some Transport Planes in it.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_PARADROP_TARGET:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GRight-click§! to select the §Yparadrop destination§!.\n§gLocation must be within the Transport Plane range.\nUnits will be dropped only if they have rights to access that location.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_AREA_DEFENSE_STATE_VALID:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GClick§! to §Yadd§! state to area defense order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_AREA_DEFENSE_STATE_SELECTED:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GClick§! to §Yremove§! state from area defense order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_AREA_DEFENSE_STATE_INVALID:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RState cannot be added area defense order.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_FALLBACK_LINE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- §GRight-click§! and drag around to paint the defensive order.\nThis type of defensive order is a §YSingle Use order§!, and it may be used to §Yguard the coast§!, or designate the §Yfallback line§! for your troops.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- §GClick§! to make the §YDefensive Line§! on the entire border.\n- §GRight-click§! and drag to draw the §YDefensive Line§! along this border.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_ARMY_GROUP:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - §GClick§! to make the §YDefensive Line§! on the entire border.\n - §GShift + Click§! to make the §YDefensive Line§! on the entire border without sub-army lines.\n - §GRight-click§! and drag to draw the §YDefensive Line§! along this border.\n - §GShift + Right-click§! and drag to draw the §YDefensive Line§! along this border without sub-army lines. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_CANT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RYou cannot draw Front Line here.§!\nPlease move your mouse over one of the highlighted fronts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_EDIT:1 "§GRight-click§! and drag to edit this §YDefensive Line§!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_LINK:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GClick§! to §Ylink§! this §YDefensive Line§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_UNLINK:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GClick§! to §Yunlink§! this §YDefensive Line§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_FALLBACK_LINE_EDIT:1 "§GRight-click§! and drag to edit this §YFallback Line§!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_FALLBACK_LINE_CANT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RYou cannot draw Fallback Line here.§!\nPlease move your mouse over one of the highlighted territories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_THIS_LINE_EDIT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GRight-click§! and drag to edit this §YLine§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_WRONG_LINE_ERR:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RYou cannot expand the line here.§!\nPlease create a separate §Ydefensive order§! to cover that area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_OFFENSIVE_LINE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GRight-click and drag to draw the §YOffensive Line§! on this territory.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_OFFENSIVE_LINE_CANT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RYou cannot draw Offensive Line here.§!\nPlease move your mouse over the highlighted territory.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_OFFENSIVE_LINE_EDIT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GRight-click and drag to edit this §YOffensive Line§!§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_INVASION_INVALID_PROV:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RThis is not a valid province for the invasion.§!\nPlease move the mouse cursor over the marked area, or existing §Yinvasion plans§!.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_PARADROP_INVALID_PROV:1 "§RThis is not a valid province for the paradrop§!."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_PARADROP_INVALID_PROV_NOT_ENOUGH_PLANES:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RThis is not a valid province for the paradrop - the province needs to have at least $NUM$ transport planes.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_PARADROP_INVALID_PROV_TIP:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please move the mouse cursor over the marked area, or existing §Yparadrop plans§!.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_INVASION_SOURCE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GClick§! to select the §Yinvasion source§!.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_INVASION_TARGET:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GRight-click§! to select the §Yinvasion destination§!.\n§gIt is possible to select a few landing points, but they all must have common sea zone.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_INVASION_PARADROP_CANCEL:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GESCAPE§! to delete order (if drawn any) and cancel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_INVASION_PARADROP_CONFIRM:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GRETURN§! to confirm order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_INVASION_CLICK_TO_EDIT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GClick§! on this §YInvasion§! order to edit it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_PARADROP_CLICK_TO_EDIT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GClick§! on this §YParadrop§! order to edit it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_NO_LINE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§HUnits assignment mode§!\nPlease move the mouse cursor over one of the blinking orders to assign currently selected units there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_NO_LINE_ARMY_GROUP:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§HUnits assignment mode§!\nPlease move the mouse cursor over one of the blinking orders to assign currently selected armies there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_CANNOT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§HUnits assignment mode§!\n§RYou cannot assign the selected units to this order.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_CANNOT_ARMY_GROUP:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§HUnits assignment mode§!\n§RYou cannot assign the selected armies to this order.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_PARATROOPERS:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\nNotice that, if a unit has at least one non-paratrooper division, it cannot be assigned to the transport orders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_UNIT_ASSIGN:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§HUnits assignment mode.§!\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_RESHAPE_HEADER:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§HEdit mode§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_RESHAPE_NO_ARROW_UNDER_MOUSE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§RPlease move the mouse cursor over one of the highlighted provinces to reshape them, or over the blinking orders.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_RESHAPE_NEW_MIDPOINT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GClick§! and drag your mouse around to §Gadd§! the new §YControl Point§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_RESHAPE_EXISTING_MIDPOINT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GClick§! and drag your mouse around to §Gedit§! this §YControl Point§!\n§GRight-click§! to §Rdelete§! this §YControl Point§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_PROV_TOOLTIP_RESHAPE_INFO:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reshaping the Advancement Arrow gives you the ability to fix the spots that could be missed when the front advances.\nIt is also possible to §Yreconnect§! the Advancement Arrow with different orders to change their hierarchy, simply by dragging the §YControl Point§! over the desired order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_CONNECT_TOOLTIP_INFO:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GRight-click§! to begin the §Yfree drawing of the Advancement Arrow§!.\nThe arrow must end on another order to which connection is allowed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_CONNECT_CANT_CONNECT_HERE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RMove the mouse cursor over the order that connection is allowed to.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EDIT_MODE_CLICK_TO_EDIT_INVASION:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GClick§! to edit this §YNaval invasion§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EDIT_MODE_CLICK_TO_EDIT_PARADROP:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GClick§! to edit this §YParadrop order§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EDIT_MODE_CLICK_TO_REORDER:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GClick§! to swap order of §HArmies§! along the frontline</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UNITS_ASSIGNED_TO_ORDER_HEADER:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§HDivisions assigned to this order:§!\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO_UNITS_ASSIGNED_TO_ORDER:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RThere are no units assigned to this order.§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASSIGN_UNITS_TO_FALLBACK_AG_ORDER:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select a full army group and §GCtrl + Click§! to assign all units without Army orders to assign them to this order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UNIT_ASSIGN_TO_ORDER_HINT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GCtrl + Click§! to assign selected units to this order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UNIT_ASSIGN_TO_ORDER_HINT_ARMY_GROUP:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§GCtrl + Click§! to assign selected armies to this order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UNIT_SELECT_ASSIGNED_HINT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GCtrl + Right Click§! to select units assigned to this order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UNIT_DELETE_SINGLE_ORDER_HINT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GRight Click§! to delete only army group front without deleting army fronts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_HOTKEY_TO_CANCEL:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GEscape§! while drawing to cancel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORDER_HOTKEY_TO_CYCLE_CONNECTIONS:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§GTab§! while drawing to cycle connections.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HIGH_PRIORITY:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§THigh priority§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MEDIUM_PRIORITY:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§TMedium priority§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOW_PRIORITY:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§TLow priority§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEATRE_PRIORITY_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theater priority decides which one will first get replacement resources and manpower shipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEATRE_PIN_AREA:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin area</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEATRE_PIN_AREA_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinning an area or theater means it sticks around even when not selected for quick access.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEATRE_DESC_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selecting a theater shows the commands groups active in this theater.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEATRE_THEATRE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theater: §Y$NAME$§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEATRE_STRAT_AREA:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strategic area: §Y$NAME$§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEATRE_UNIT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The theater has §Y1§! division</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEATRE_UNITS:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The theater has $N|Y$ divisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEATRE_GROUP_UNASSIGNED:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unassigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CAN_ONLY_HAVE_ONE_INVASION_PER_PORT:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§RCan only create a single invasion order from any given port§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MAX_UNITS_ON_THIS_ORDER:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Supplied Divisions: $VALUE|Y$</t>
   </si>
 </sst>
 </file>
@@ -575,7 +104,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -585,6 +114,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,7 +244,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D820"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -733,3765 +266,8200 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A1),"",C1)</f>
+        <f aca="false">IF(OR(ISBLANK(A1),A1=" "),"",C1)</f>
         <v>l_german:</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> ALERT_LOW_SUPPLY:0 "§RSupply shortage!§!"</v>
+        <v>""</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A2),"",C2)</f>
-        <v> ALERT_LOW_SUPPLY:0 "§RSupply shortage!§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A2),A2=" "),"",C2)</f>
+        <v/>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> ACTIVATE_PHASE:0 "Activate phase"</v>
+        <v> ""</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v> ACTIVATE_PHASE:0 "Activate phase"</v>
+        <f aca="false">IF(OR(ISBLANK(A3),A3=" "),"",C3)</f>
+        <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> ORDER_DETACH:0 "Split up advance"</v>
+        <v> ""</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> ORDER_DETACH:0 "Split up advance"</v>
+        <f aca="false">IF(OR(ISBLANK(A4),A4=" "),"",C4)</f>
+        <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> ORDER_DEFENSIVE_LINE:0 "Assign Front Line"</v>
+        <v> ""</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v> ORDER_DEFENSIVE_LINE:0 "Assign Front Line"</v>
+        <f aca="false">IF(OR(ISBLANK(A5),A5=" "),"",C5)</f>
+        <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> ORDER_OFFENSIVE_LINE:0 "Offensive Line"</v>
+        <v> ""</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> ORDER_OFFENSIVE_LINE:0 "Offensive Line"</v>
+        <f aca="false">IF(OR(ISBLANK(A6),A6=" "),"",C6)</f>
+        <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> ORDER_PARADROP:0 "Paradrop"</v>
+        <v> ""</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> ORDER_PARADROP:0 "Paradrop"</v>
+        <f aca="false">IF(OR(ISBLANK(A7),A7=" "),"",C7)</f>
+        <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> ORDER_AREA_DEFENSE:0 "Area Defense"</v>
+        <v> ""</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> ORDER_AREA_DEFENSE:0 "Area Defense"</v>
+        <f aca="false">IF(OR(ISBLANK(A8),A8=" "),"",C8)</f>
+        <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> ORDER_INVASION:0 "Naval Invasion"</v>
+        <v> ""</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> ORDER_INVASION:0 "Naval Invasion"</v>
+        <f aca="false">IF(OR(ISBLANK(A9),A9=" "),"",C9)</f>
+        <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> ORDER_BOMB:0 "Tactical Bombing"</v>
+        <v> ""</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> ORDER_BOMB:0 "Tactical Bombing"</v>
+        <f aca="false">IF(OR(ISBLANK(A10),A10=" "),"",C10)</f>
+        <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> ORDER_BLITZ:0 "Blitz Advance"</v>
+        <v>""</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> ORDER_BLITZ:0 "Blitz Advance"</v>
+        <f aca="false">IF(OR(ISBLANK(A11),A11=" "),"",C11)</f>
+        <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> ORDER_AIR_SUPPORT:0 "Air Support"</v>
+        <v> ""</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A12),"",C12)</f>
-        <v> ORDER_AIR_SUPPORT:0 "Air Support"</v>
+        <f aca="false">IF(OR(ISBLANK(A12),A12=" "),"",C12)</f>
+        <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> ORDER_REMOVE:0 "Cancel selected operation"</v>
+        <v>""</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> ORDER_REMOVE:0 "Cancel selected operation"</v>
+        <f aca="false">IF(OR(ISBLANK(A13),A13=" "),"",C13)</f>
+        <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_SOURCE:0 "§GClick§! to select the §Yparadrop source§!.\n§gLocation must have an airbase with some Transport Planes in it.§!"</v>
+        <v>""</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_SOURCE:0 "§GClick§! to select the §Yparadrop source§!.\n§gLocation must have an airbase with some Transport Planes in it.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A14),A14=" "),"",C14)</f>
+        <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_TARGET:0 "§GRight-click§! to select the §Yparadrop destination§!.\n§gLocation must be within the Transport Plane range.\nUnits will be dropped only if they have rights to access that location.§!"</v>
+        <v> ""</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A15),"",C15)</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_TARGET:0 "§GRight-click§! to select the §Yparadrop destination§!.\n§gLocation must be within the Transport Plane range.\nUnits will be dropped only if they have rights to access that location.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A15),A15=" "),"",C15)</f>
+        <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> ORDER_AREA_DEFENSE_STATE_VALID:0 "§GClick§! to §Yadd§! state to area defense order."</v>
+        <v> ""</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v> ORDER_AREA_DEFENSE_STATE_VALID:0 "§GClick§! to §Yadd§! state to area defense order."</v>
+        <f aca="false">IF(OR(ISBLANK(A16),A16=" "),"",C16)</f>
+        <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> ORDER_AREA_DEFENSE_STATE_SELECTED:0 "§GClick§! to §Yremove§! state from area defense order."</v>
+        <v> ""</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> ORDER_AREA_DEFENSE_STATE_SELECTED:0 "§GClick§! to §Yremove§! state from area defense order."</v>
+        <f aca="false">IF(OR(ISBLANK(A17),A17=" "),"",C17)</f>
+        <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> ORDER_AREA_DEFENSE_STATE_INVALID:0 "§RState cannot be added area defense order.§!"</v>
+        <v> ""</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> ORDER_AREA_DEFENSE_STATE_INVALID:0 "§RState cannot be added area defense order.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A18),A18=" "),"",C18)</f>
+        <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_FALLBACK_LINE:0 "- §GRight-click§! and drag around to paint the defensive order.\nThis type of defensive order is a §YSingle Use order§!, and it may be used to §Yguard the coast§!, or designate the §Yfallback line§! for your troops."</v>
+        <v>""</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A19),"",C19)</f>
-        <v> ORDER_PROV_TOOLTIP_FALLBACK_LINE:0 "- §GRight-click§! and drag around to paint the defensive order.\nThis type of defensive order is a §YSingle Use order§!, and it may be used to §Yguard the coast§!, or designate the §Yfallback line§! for your troops."</v>
+        <f aca="false">IF(OR(ISBLANK(A19),A19=" "),"",C19)</f>
+        <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE:0 "- §GClick§! to make the §YDefensive Line§! on the entire border.\n- §GRight-click§! and drag to draw the §YDefensive Line§! along this border."</v>
+        <v> ""</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE:0 "- §GClick§! to make the §YDefensive Line§! on the entire border.\n- §GRight-click§! and drag to draw the §YDefensive Line§! along this border."</v>
+        <f aca="false">IF(OR(ISBLANK(A20),A20=" "),"",C20)</f>
+        <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_ARMY_GROUP:0 " - §GClick§! to make the §YDefensive Line§! on the entire border.\n - §GShift + Click§! to make the §YDefensive Line§! on the entire border without sub-army lines.\n - §GRight-click§! and drag to draw the §YDefensive Line§! along this border.\n - §GShift + Right-click§! and drag to draw the §YDefensive Line§! along this border without sub-army lines. "</v>
+        <v> ""</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_ARMY_GROUP:0 " - §GClick§! to make the §YDefensive Line§! on the entire border.\n - §GShift + Click§! to make the §YDefensive Line§! on the entire border without sub-army lines.\n - §GRight-click§! and drag to draw the §YDefensive Line§! along this border.\n - §GShift + Right-click§! and drag to draw the §YDefensive Line§! along this border without sub-army lines. "</v>
+        <f aca="false">IF(OR(ISBLANK(A21),A21=" "),"",C21)</f>
+        <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_CANT:0 "§RYou cannot draw Front Line here.§!\nPlease move your mouse over one of the highlighted fronts."</v>
+        <v>""</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_CANT:0 "§RYou cannot draw Front Line here.§!\nPlease move your mouse over one of the highlighted fronts."</v>
+        <f aca="false">IF(OR(ISBLANK(A22),A22=" "),"",C22)</f>
+        <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_EDIT:1 "§GRight-click§! and drag to edit this §YDefensive Line§!" ""</v>
+        <v>""</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A23),"",C23)</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_EDIT:1 "§GRight-click§! and drag to edit this §YDefensive Line§!" ""</v>
+        <f aca="false">IF(OR(ISBLANK(A23),A23=" "),"",C23)</f>
+        <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_LINK:0 "§GClick§! to §Ylink§! this §YDefensive Line§!"</v>
+        <v> ""</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_LINK:0 "§GClick§! to §Ylink§! this §YDefensive Line§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A24),A24=" "),"",C24)</f>
+        <v/>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_UNLINK:0 "§GClick§! to §Yunlink§! this §YDefensive Line§!"</v>
+        <v> ""</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_UNLINK:0 "§GClick§! to §Yunlink§! this §YDefensive Line§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A25),A25=" "),"",C25)</f>
+        <v/>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_FALLBACK_LINE_EDIT:1 "§GRight-click§! and drag to edit this §YFallback Line§!" ""</v>
+        <v> ""</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v> ORDER_PROV_TOOLTIP_FALLBACK_LINE_EDIT:1 "§GRight-click§! and drag to edit this §YFallback Line§!" ""</v>
+        <f aca="false">IF(OR(ISBLANK(A26),A26=" "),"",C26)</f>
+        <v/>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_FALLBACK_LINE_CANT:0 "§RYou cannot draw Fallback Line here.§!\nPlease move your mouse over one of the highlighted territories."</v>
+        <v> ""</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A27),"",C27)</f>
-        <v> ORDER_PROV_TOOLTIP_FALLBACK_LINE_CANT:0 "§RYou cannot draw Fallback Line here.§!\nPlease move your mouse over one of the highlighted territories."</v>
+        <f aca="false">IF(OR(ISBLANK(A27),A27=" "),"",C27)</f>
+        <v/>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_THIS_LINE_EDIT:0 "\n§GRight-click§! and drag to edit this §YLine§!"</v>
+        <v> ""</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A28),"",C28)</f>
-        <v> ORDER_PROV_TOOLTIP_THIS_LINE_EDIT:0 "\n§GRight-click§! and drag to edit this §YLine§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A28),A28=" "),"",C28)</f>
+        <v/>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_WRONG_LINE_ERR:0 "§RYou cannot expand the line here.§!\nPlease create a separate §Ydefensive order§! to cover that area."</v>
+        <v> ""</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A29),"",C29)</f>
-        <v> ORDER_PROV_TOOLTIP_DEFENSIVE_LINE_WRONG_LINE_ERR:0 "§RYou cannot expand the line here.§!\nPlease create a separate §Ydefensive order§! to cover that area."</v>
+        <f aca="false">IF(OR(ISBLANK(A29),A29=" "),"",C29)</f>
+        <v/>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_OFFENSIVE_LINE:0 "§GRight-click and drag to draw the §YOffensive Line§! on this territory.§!"</v>
+        <v> ""</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> ORDER_PROV_TOOLTIP_OFFENSIVE_LINE:0 "§GRight-click and drag to draw the §YOffensive Line§! on this territory.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A30),A30=" "),"",C30)</f>
+        <v/>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_OFFENSIVE_LINE_CANT:0 "§RYou cannot draw Offensive Line here.§!\nPlease move your mouse over the highlighted territory."</v>
+        <v> ""</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A31),"",C31)</f>
-        <v> ORDER_PROV_TOOLTIP_OFFENSIVE_LINE_CANT:0 "§RYou cannot draw Offensive Line here.§!\nPlease move your mouse over the highlighted territory."</v>
+        <f aca="false">IF(OR(ISBLANK(A31),A31=" "),"",C31)</f>
+        <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_OFFENSIVE_LINE_EDIT:0 "§GRight-click and drag to edit this §YOffensive Line§!§!"</v>
+        <v>""</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A32),"",C32)</f>
-        <v> ORDER_PROV_TOOLTIP_OFFENSIVE_LINE_EDIT:0 "§GRight-click and drag to edit this §YOffensive Line§!§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A32),A32=" "),"",C32)</f>
+        <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_INVALID_PROV:0 "§RThis is not a valid province for the invasion.§!\nPlease move the mouse cursor over the marked area, or existing §Yinvasion plans§!."</v>
+        <v> ""</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_INVALID_PROV:0 "§RThis is not a valid province for the invasion.§!\nPlease move the mouse cursor over the marked area, or existing §Yinvasion plans§!."</v>
+        <f aca="false">IF(OR(ISBLANK(A33),A33=" "),"",C33)</f>
+        <v/>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_INVALID_PROV:1 "§RThis is not a valid province for the paradrop§!." ""</v>
+        <v> ""</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A34),"",C34)</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_INVALID_PROV:1 "§RThis is not a valid province for the paradrop§!." ""</v>
+        <f aca="false">IF(OR(ISBLANK(A34),A34=" "),"",C34)</f>
+        <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_INVALID_PROV_NOT_ENOUGH_PLANES:0 "§RThis is not a valid province for the paradrop - the province needs to have at least $NUM$ transport planes.§!"</v>
+        <v> ""</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A35),"",C35)</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_INVALID_PROV_NOT_ENOUGH_PLANES:0 "§RThis is not a valid province for the paradrop - the province needs to have at least $NUM$ transport planes.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A35),A35=" "),"",C35)</f>
+        <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_INVALID_PROV_TIP:0 "Please move the mouse cursor over the marked area, or existing §Yparadrop plans§!."</v>
+        <v> ""</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A36),"",C36)</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_INVALID_PROV_TIP:0 "Please move the mouse cursor over the marked area, or existing §Yparadrop plans§!."</v>
+        <f aca="false">IF(OR(ISBLANK(A36),A36=" "),"",C36)</f>
+        <v/>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_SOURCE:0 "§GClick§! to select the §Yinvasion source§!."</v>
+        <v> ""</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_SOURCE:0 "§GClick§! to select the §Yinvasion source§!."</v>
+        <f aca="false">IF(OR(ISBLANK(A37),A37=" "),"",C37)</f>
+        <v/>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_TARGET:0 "§GRight-click§! to select the §Yinvasion destination§!.\n§gIt is possible to select a few landing points, but they all must have common sea zone.§!"</v>
+        <v> ""</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A38),"",C38)</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_TARGET:0 "§GRight-click§! to select the §Yinvasion destination§!.\n§gIt is possible to select a few landing points, but they all must have common sea zone.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A38),A38=" "),"",C38)</f>
+        <v/>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_PARADROP_CANCEL:0 "\n§GESCAPE§! to delete order (if drawn any) and cancel."</v>
+        <v> ""</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_PARADROP_CANCEL:0 "\n§GESCAPE§! to delete order (if drawn any) and cancel."</v>
+        <f aca="false">IF(OR(ISBLANK(A39),A39=" "),"",C39)</f>
+        <v/>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_PARADROP_CONFIRM:0 "\n§GRETURN§! to confirm order."</v>
+        <v> ""</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A40),"",C40)</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_PARADROP_CONFIRM:0 "\n§GRETURN§! to confirm order."</v>
+        <f aca="false">IF(OR(ISBLANK(A40),A40=" "),"",C40)</f>
+        <v/>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_CLICK_TO_EDIT:0 "§GClick§! on this §YInvasion§! order to edit it."</v>
+        <v> ""</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> ORDER_PROV_TOOLTIP_INVASION_CLICK_TO_EDIT:0 "§GClick§! on this §YInvasion§! order to edit it."</v>
+        <f aca="false">IF(OR(ISBLANK(A41),A41=" "),"",C41)</f>
+        <v/>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_CLICK_TO_EDIT:0 "§GClick§! on this §YParadrop§! order to edit it."</v>
+        <v> ""</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A42),"",C42)</f>
-        <v> ORDER_PROV_TOOLTIP_PARADROP_CLICK_TO_EDIT:0 "§GClick§! on this §YParadrop§! order to edit it."</v>
+        <f aca="false">IF(OR(ISBLANK(A42),A42=" "),"",C42)</f>
+        <v/>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_NO_LINE:0 "§HUnits assignment mode§!\nPlease move the mouse cursor over one of the blinking orders to assign currently selected units there."</v>
+        <v> ""</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_NO_LINE:0 "§HUnits assignment mode§!\nPlease move the mouse cursor over one of the blinking orders to assign currently selected units there."</v>
+        <f aca="false">IF(OR(ISBLANK(A43),A43=" "),"",C43)</f>
+        <v/>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C44" s="1" t="str">
         <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_NO_LINE_ARMY_GROUP:0 "§HUnits assignment mode§!\nPlease move the mouse cursor over one of the blinking orders to assign currently selected armies there."</v>
+        <v> ""</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A44),"",C44)</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_NO_LINE_ARMY_GROUP:0 "§HUnits assignment mode§!\nPlease move the mouse cursor over one of the blinking orders to assign currently selected armies there."</v>
+        <f aca="false">IF(OR(ISBLANK(A44),A44=" "),"",C44)</f>
+        <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_CANNOT:0 "§HUnits assignment mode§!\n§RYou cannot assign the selected units to this order.§!"</v>
+        <v> ""</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_CANNOT:0 "§HUnits assignment mode§!\n§RYou cannot assign the selected units to this order.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A45),A45=" "),"",C45)</f>
+        <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_CANNOT_ARMY_GROUP:0 "§HUnits assignment mode§!\n§RYou cannot assign the selected armies to this order.§!"</v>
+        <v> ""</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A46),"",C46)</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_CANNOT_ARMY_GROUP:0 "§HUnits assignment mode§!\n§RYou cannot assign the selected armies to this order.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A46),A46=" "),"",C46)</f>
+        <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_PARATROOPERS:0 "\nNotice that, if a unit has at least one non-paratrooper division, it cannot be assigned to the transport orders."</v>
+        <v> ""</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN_PARATROOPERS:0 "\nNotice that, if a unit has at least one non-paratrooper division, it cannot be assigned to the transport orders."</v>
+        <f aca="false">IF(OR(ISBLANK(A47),A47=" "),"",C47)</f>
+        <v/>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN:0 "§HUnits assignment mode.§!\n"</v>
+        <v> ""</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> ORDER_PROV_TOOLTIP_UNIT_ASSIGN:0 "§HUnits assignment mode.§!\n"</v>
+        <f aca="false">IF(OR(ISBLANK(A48),A48=" "),"",C48)</f>
+        <v/>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_HEADER:0 "§HEdit mode§!"</v>
+        <v> ""</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_HEADER:0 "§HEdit mode§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A49),A49=" "),"",C49)</f>
+        <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_NO_ARROW_UNDER_MOUSE:0 "\n§RPlease move the mouse cursor over one of the highlighted provinces to reshape them, or over the blinking orders.§!"</v>
+        <v>""</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_NO_ARROW_UNDER_MOUSE:0 "\n§RPlease move the mouse cursor over one of the highlighted provinces to reshape them, or over the blinking orders.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A50),A50=" "),"",C50)</f>
+        <v/>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_NEW_MIDPOINT:0 "\n§GClick§! and drag your mouse around to §Gadd§! the new §YControl Point§!"</v>
+        <v> ""</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_NEW_MIDPOINT:0 "\n§GClick§! and drag your mouse around to §Gadd§! the new §YControl Point§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A51),A51=" "),"",C51)</f>
+        <v/>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_EXISTING_MIDPOINT:0 "\n§GClick§! and drag your mouse around to §Gedit§! this §YControl Point§!\n§GRight-click§! to §Rdelete§! this §YControl Point§!"</v>
+        <v> ""</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_EXISTING_MIDPOINT:0 "\n§GClick§! and drag your mouse around to §Gedit§! this §YControl Point§!\n§GRight-click§! to §Rdelete§! this §YControl Point§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A52),A52=" "),"",C52)</f>
+        <v/>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_INFO:0 "Reshaping the Advancement Arrow gives you the ability to fix the spots that could be missed when the front advances.\nIt is also possible to §Yreconnect§! the Advancement Arrow with different orders to change their hierarchy, simply by dragging the §YControl Point§! over the desired order."</v>
+        <v> ""</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> ORDER_PROV_TOOLTIP_RESHAPE_INFO:0 "Reshaping the Advancement Arrow gives you the ability to fix the spots that could be missed when the front advances.\nIt is also possible to §Yreconnect§! the Advancement Arrow with different orders to change their hierarchy, simply by dragging the §YControl Point§! over the desired order."</v>
+        <f aca="false">IF(OR(ISBLANK(A53),A53=" "),"",C53)</f>
+        <v/>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> ORDER_CONNECT_TOOLTIP_INFO:0 "\n§GRight-click§! to begin the §Yfree drawing of the Advancement Arrow§!.\nThe arrow must end on another order to which connection is allowed."</v>
+        <v> ""</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A54),"",C54)</f>
-        <v> ORDER_CONNECT_TOOLTIP_INFO:0 "\n§GRight-click§! to begin the §Yfree drawing of the Advancement Arrow§!.\nThe arrow must end on another order to which connection is allowed."</v>
+        <f aca="false">IF(OR(ISBLANK(A54),A54=" "),"",C54)</f>
+        <v/>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v> ORDER_CONNECT_CANT_CONNECT_HERE:0 "§RMove the mouse cursor over the order that connection is allowed to.§!"</v>
+        <v> ""</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v> ORDER_CONNECT_CANT_CONNECT_HERE:0 "§RMove the mouse cursor over the order that connection is allowed to.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A55),A55=" "),"",C55)</f>
+        <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v> EDIT_MODE_CLICK_TO_EDIT_INVASION:0 "\n§GClick§! to edit this §YNaval invasion§!"</v>
+        <v> ""</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A56),"",C56)</f>
-        <v> EDIT_MODE_CLICK_TO_EDIT_INVASION:0 "\n§GClick§! to edit this §YNaval invasion§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A56),A56=" "),"",C56)</f>
+        <v/>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v> EDIT_MODE_CLICK_TO_EDIT_PARADROP:0 "\n§GClick§! to edit this §YParadrop order§!"</v>
+        <v> ""</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A57),"",C57)</f>
-        <v> EDIT_MODE_CLICK_TO_EDIT_PARADROP:0 "\n§GClick§! to edit this §YParadrop order§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A57),A57=" "),"",C57)</f>
+        <v/>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v> EDIT_MODE_CLICK_TO_REORDER:0 "\n§GClick§! to swap order of §HArmies§! along the frontline"</v>
+        <v> ""</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A58),"",C58)</f>
-        <v> EDIT_MODE_CLICK_TO_REORDER:0 "\n§GClick§! to swap order of §HArmies§! along the frontline"</v>
+        <f aca="false">IF(OR(ISBLANK(A58),A58=" "),"",C58)</f>
+        <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v> UNITS_ASSIGNED_TO_ORDER_HEADER:0 "§HDivisions assigned to this order:§!\n"</v>
+        <v> ""</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A59),"",C59)</f>
-        <v> UNITS_ASSIGNED_TO_ORDER_HEADER:0 "§HDivisions assigned to this order:§!\n"</v>
+        <f aca="false">IF(OR(ISBLANK(A59),A59=" "),"",C59)</f>
+        <v/>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> NO_UNITS_ASSIGNED_TO_ORDER:0 "§RThere are no units assigned to this order.§!"</v>
+        <v> ""</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> NO_UNITS_ASSIGNED_TO_ORDER:0 "§RThere are no units assigned to this order.§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A60),A60=" "),"",C60)</f>
+        <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v> ASSIGN_UNITS_TO_FALLBACK_AG_ORDER:0 "Select a full army group and §GCtrl + Click§! to assign all units without Army orders to assign them to this order."</v>
+        <v>""</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A61),"",C61)</f>
-        <v> ASSIGN_UNITS_TO_FALLBACK_AG_ORDER:0 "Select a full army group and §GCtrl + Click§! to assign all units without Army orders to assign them to this order."</v>
+        <f aca="false">IF(OR(ISBLANK(A61),A61=" "),"",C61)</f>
+        <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> UNIT_ASSIGN_TO_ORDER_HINT:0 "§GCtrl + Click§! to assign selected units to this order."</v>
+        <v> ""</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> UNIT_ASSIGN_TO_ORDER_HINT:0 "§GCtrl + Click§! to assign selected units to this order."</v>
+        <f aca="false">IF(OR(ISBLANK(A62),A62=" "),"",C62)</f>
+        <v/>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> UNIT_ASSIGN_TO_ORDER_HINT_ARMY_GROUP:0 "§GCtrl + Click§! to assign selected armies to this order."</v>
+        <v> ""</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v> UNIT_ASSIGN_TO_ORDER_HINT_ARMY_GROUP:0 "§GCtrl + Click§! to assign selected armies to this order."</v>
+        <f aca="false">IF(OR(ISBLANK(A63),A63=" "),"",C63)</f>
+        <v/>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> UNIT_SELECT_ASSIGNED_HINT:0 "\n§GCtrl + Right Click§! to select units assigned to this order."</v>
+        <v> ""</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> UNIT_SELECT_ASSIGNED_HINT:0 "\n§GCtrl + Right Click§! to select units assigned to this order."</v>
+        <f aca="false">IF(OR(ISBLANK(A64),A64=" "),"",C64)</f>
+        <v/>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> UNIT_DELETE_SINGLE_ORDER_HINT:0 "\n§GRight Click§! to delete only army group front without deleting army fronts."</v>
+        <v> ""</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> UNIT_DELETE_SINGLE_ORDER_HINT:0 "\n§GRight Click§! to delete only army group front without deleting army fronts."</v>
+        <f aca="false">IF(OR(ISBLANK(A65),A65=" "),"",C65)</f>
+        <v/>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> ORDER_HOTKEY_TO_CANCEL:0 "\n§GEscape§! while drawing to cancel."</v>
+        <v>""</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> ORDER_HOTKEY_TO_CANCEL:0 "\n§GEscape§! while drawing to cancel."</v>
+        <f aca="false">IF(OR(ISBLANK(A66),A66=" "),"",C66)</f>
+        <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v> ORDER_HOTKEY_TO_CYCLE_CONNECTIONS:0 "\n§GTab§! while drawing to cycle connections."</v>
+        <v> ""</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v> ORDER_HOTKEY_TO_CYCLE_CONNECTIONS:0 "\n§GTab§! while drawing to cycle connections."</v>
+        <f aca="false">IF(OR(ISBLANK(A67),A67=" "),"",C67)</f>
+        <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> HIGH_PRIORITY:0 "§THigh priority§!"</v>
+        <v> ""</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v> HIGH_PRIORITY:0 "§THigh priority§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A68),A68=" "),"",C68)</f>
+        <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> MEDIUM_PRIORITY:0 "§TMedium priority§!"</v>
+        <v> ""</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> MEDIUM_PRIORITY:0 "§TMedium priority§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A69),A69=" "),"",C69)</f>
+        <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> LOW_PRIORITY:0 "§TLow priority§!"</v>
+        <v> ""</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> LOW_PRIORITY:0 "§TLow priority§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A70),A70=" "),"",C70)</f>
+        <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> THEATRE_PRIORITY_DESC:0 "Theater priority decides which one will first get replacement resources and manpower shipped."</v>
+        <v> ""</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> THEATRE_PRIORITY_DESC:0 "Theater priority decides which one will first get replacement resources and manpower shipped."</v>
+        <f aca="false">IF(OR(ISBLANK(A71),A71=" "),"",C71)</f>
+        <v/>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> THEATRE_PIN_AREA:0 "Pin area"</v>
+        <v> ""</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> THEATRE_PIN_AREA:0 "Pin area"</v>
+        <f aca="false">IF(OR(ISBLANK(A72),A72=" "),"",C72)</f>
+        <v/>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v> THEATRE_PIN_AREA_DESC:0 "Pinning an area or theater means it sticks around even when not selected for quick access."</v>
+        <v> ""</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A73),"",C73)</f>
-        <v> THEATRE_PIN_AREA_DESC:0 "Pinning an area or theater means it sticks around even when not selected for quick access."</v>
+        <f aca="false">IF(OR(ISBLANK(A73),A73=" "),"",C73)</f>
+        <v/>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> THEATRE_DESC_DESC:0 "Selecting a theater shows the commands groups active in this theater."</v>
+        <v>""</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v> THEATRE_DESC_DESC:0 "Selecting a theater shows the commands groups active in this theater."</v>
+        <f aca="false">IF(OR(ISBLANK(A74),A74=" "),"",C74)</f>
+        <v/>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> THEATRE_THEATRE:0 "Theater: §Y$NAME$§!"</v>
+        <v>""</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> THEATRE_THEATRE:0 "Theater: §Y$NAME$§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A75),A75=" "),"",C75)</f>
+        <v/>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> THEATRE_STRAT_AREA:0 "Strategic area: §Y$NAME$§!"</v>
+        <v> ""</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v> THEATRE_STRAT_AREA:0 "Strategic area: §Y$NAME$§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A76),A76=" "),"",C76)</f>
+        <v/>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v> THEATRE_UNIT:0 "The theater has §Y1§! division"</v>
+        <v> ""</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A77),"",C77)</f>
-        <v> THEATRE_UNIT:0 "The theater has §Y1§! division"</v>
+        <f aca="false">IF(OR(ISBLANK(A77),A77=" "),"",C77)</f>
+        <v/>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v> THEATRE_UNITS:0 "The theater has $N|Y$ divisions"</v>
+        <v> ""</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A78),"",C78)</f>
-        <v> THEATRE_UNITS:0 "The theater has $N|Y$ divisions"</v>
+        <f aca="false">IF(OR(ISBLANK(A78),A78=" "),"",C78)</f>
+        <v/>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> THEATRE_GROUP_UNASSIGNED:0 "Unassigned"</v>
+        <v> ""</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v> THEATRE_GROUP_UNASSIGNED:0 "Unassigned"</v>
+        <f aca="false">IF(OR(ISBLANK(A79),A79=" "),"",C79)</f>
+        <v/>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> CAN_ONLY_HAVE_ONE_INVASION_PER_PORT:0 "§RCan only create a single invasion order from any given port§!"</v>
+        <v> ""</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> CAN_ONLY_HAVE_ONE_INVASION_PER_PORT:0 "§RCan only create a single invasion order from any given port§!"</v>
+        <f aca="false">IF(OR(ISBLANK(A80),A80=" "),"",C80)</f>
+        <v/>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> MAX_UNITS_ON_THIS_ORDER:0 "Max Supplied Divisions: $VALUE|Y$"</v>
+        <v> ""</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> MAX_UNITS_ON_THIS_ORDER:0 "Max Supplied Divisions: $VALUE|Y$"</v>
+        <f aca="false">IF(OR(ISBLANK(A81),A81=" "),"",C81)</f>
+        <v/>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="1" t="str">
+        <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D82" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A82),"",C82)</f>
+        <f aca="false">IF(OR(ISBLANK(A82),A82=" "),"",C82)</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="1" t="str">
+        <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D83" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A83),"",C83)</f>
+        <f aca="false">IF(OR(ISBLANK(A83),A83=" "),"",C83)</f>
         <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="1" t="str">
+        <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D84" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A84),"",C84)</f>
+        <f aca="false">IF(OR(ISBLANK(A84),A84=" "),"",C84)</f>
         <v/>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="1" t="str">
+        <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D85" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A85),"",C85)</f>
+        <f aca="false">IF(OR(ISBLANK(A85),A85=" "),"",C85)</f>
         <v/>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1" t="str">
+        <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D86" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A86),"",C86)</f>
+        <f aca="false">IF(OR(ISBLANK(A86),A86=" "),"",C86)</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="1" t="str">
+        <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D87" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A87),"",C87)</f>
+        <f aca="false">IF(OR(ISBLANK(A87),A87=" "),"",C87)</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="1" t="str">
+        <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D88" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A88),"",C88)</f>
+        <f aca="false">IF(OR(ISBLANK(A88),A88=" "),"",C88)</f>
         <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="1" t="str">
+        <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D89" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A89),"",C89)</f>
+        <f aca="false">IF(OR(ISBLANK(A89),A89=" "),"",C89)</f>
         <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="1" t="str">
+        <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D90" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A90),"",C90)</f>
+        <f aca="false">IF(OR(ISBLANK(A90),A90=" "),"",C90)</f>
         <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="1" t="str">
+        <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D91" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A91),"",C91)</f>
+        <f aca="false">IF(OR(ISBLANK(A91),A91=" "),"",C91)</f>
         <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="1" t="str">
+        <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D92" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A92),"",C92)</f>
+        <f aca="false">IF(OR(ISBLANK(A92),A92=" "),"",C92)</f>
         <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="1" t="str">
+        <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D93" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A93),"",C93)</f>
+        <f aca="false">IF(OR(ISBLANK(A93),A93=" "),"",C93)</f>
         <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="1" t="str">
+        <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D94" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A94),"",C94)</f>
+        <f aca="false">IF(OR(ISBLANK(A94),A94=" "),"",C94)</f>
         <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="1" t="str">
+        <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D95" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A95),"",C95)</f>
+        <f aca="false">IF(OR(ISBLANK(A95),A95=" "),"",C95)</f>
         <v/>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="1" t="str">
+        <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D96" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A96),"",C96)</f>
+        <f aca="false">IF(OR(ISBLANK(A96),A96=" "),"",C96)</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="1" t="str">
+        <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D97" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A97),"",C97)</f>
+        <f aca="false">IF(OR(ISBLANK(A97),A97=" "),"",C97)</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="1" t="str">
+        <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D98" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A98),"",C98)</f>
+        <f aca="false">IF(OR(ISBLANK(A98),A98=" "),"",C98)</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="1" t="str">
+        <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D99" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A99),"",C99)</f>
+        <f aca="false">IF(OR(ISBLANK(A99),A99=" "),"",C99)</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="1" t="str">
+        <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D100" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A100),"",C100)</f>
+        <f aca="false">IF(OR(ISBLANK(A100),A100=" "),"",C100)</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="1" t="str">
+        <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D101" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A101),"",C101)</f>
+        <f aca="false">IF(OR(ISBLANK(A101),A101=" "),"",C101)</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="1" t="str">
+        <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D102" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A102),"",C102)</f>
+        <f aca="false">IF(OR(ISBLANK(A102),A102=" "),"",C102)</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="1" t="str">
+        <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D103" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A103),"",C103)</f>
+        <f aca="false">IF(OR(ISBLANK(A103),A103=" "),"",C103)</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="1" t="str">
+        <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D104" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A104),"",C104)</f>
+        <f aca="false">IF(OR(ISBLANK(A104),A104=" "),"",C104)</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="1" t="str">
+        <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D105" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A105),"",C105)</f>
+        <f aca="false">IF(OR(ISBLANK(A105),A105=" "),"",C105)</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1" t="str">
+        <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D106" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A106),"",C106)</f>
+        <f aca="false">IF(OR(ISBLANK(A106),A106=" "),"",C106)</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="1" t="str">
+        <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D107" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A107),"",C107)</f>
+        <f aca="false">IF(OR(ISBLANK(A107),A107=" "),"",C107)</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="1" t="str">
+        <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D108" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A108),"",C108)</f>
+        <f aca="false">IF(OR(ISBLANK(A108),A108=" "),"",C108)</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1" t="str">
+        <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D109" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A109),"",C109)</f>
+        <f aca="false">IF(OR(ISBLANK(A109),A109=" "),"",C109)</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="1" t="str">
+        <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D110" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A110),"",C110)</f>
+        <f aca="false">IF(OR(ISBLANK(A110),A110=" "),"",C110)</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="1" t="str">
+        <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D111" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A111),"",C111)</f>
+        <f aca="false">IF(OR(ISBLANK(A111),A111=" "),"",C111)</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="1" t="str">
+        <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D112" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A112),"",C112)</f>
+        <f aca="false">IF(OR(ISBLANK(A112),A112=" "),"",C112)</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="1" t="str">
+        <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D113" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A113),"",C113)</f>
+        <f aca="false">IF(OR(ISBLANK(A113),A113=" "),"",C113)</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="1" t="str">
+        <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D114" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A114),"",C114)</f>
+        <f aca="false">IF(OR(ISBLANK(A114),A114=" "),"",C114)</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="1" t="str">
+        <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D115" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A115),"",C115)</f>
+        <f aca="false">IF(OR(ISBLANK(A115),A115=" "),"",C115)</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="1" t="str">
+        <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D116" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A116),"",C116)</f>
+        <f aca="false">IF(OR(ISBLANK(A116),A116=" "),"",C116)</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="1" t="str">
+        <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D117" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A117),"",C117)</f>
+        <f aca="false">IF(OR(ISBLANK(A117),A117=" "),"",C117)</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="1" t="str">
+        <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D118" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A118),"",C118)</f>
+        <f aca="false">IF(OR(ISBLANK(A118),A118=" "),"",C118)</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="1" t="str">
+        <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D119" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A119),"",C119)</f>
+        <f aca="false">IF(OR(ISBLANK(A119),A119=" "),"",C119)</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="1" t="str">
+        <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D120" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A120),"",C120)</f>
+        <f aca="false">IF(OR(ISBLANK(A120),A120=" "),"",C120)</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="1" t="str">
+        <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D121" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A121),"",C121)</f>
+        <f aca="false">IF(OR(ISBLANK(A121),A121=" "),"",C121)</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="1" t="str">
+        <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D122" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A122),"",C122)</f>
+        <f aca="false">IF(OR(ISBLANK(A122),A122=" "),"",C122)</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="1" t="str">
+        <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D123" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A123),"",C123)</f>
+        <f aca="false">IF(OR(ISBLANK(A123),A123=" "),"",C123)</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="1" t="str">
+        <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D124" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A124),"",C124)</f>
+        <f aca="false">IF(OR(ISBLANK(A124),A124=" "),"",C124)</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="1" t="str">
+        <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D125" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A125),"",C125)</f>
+        <f aca="false">IF(OR(ISBLANK(A125),A125=" "),"",C125)</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="1" t="str">
+        <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D126" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A126),"",C126)</f>
+        <f aca="false">IF(OR(ISBLANK(A126),A126=" "),"",C126)</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="1" t="str">
+        <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D127" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A127),"",C127)</f>
+        <f aca="false">IF(OR(ISBLANK(A127),A127=" "),"",C127)</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="1" t="str">
+        <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D128" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A128),"",C128)</f>
+        <f aca="false">IF(OR(ISBLANK(A128),A128=" "),"",C128)</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="1" t="str">
+        <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D129" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A129),"",C129)</f>
+        <f aca="false">IF(OR(ISBLANK(A129),A129=" "),"",C129)</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="1" t="str">
+        <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D130" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A130),"",C130)</f>
+        <f aca="false">IF(OR(ISBLANK(A130),A130=" "),"",C130)</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="1" t="str">
+        <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D131" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A131),"",C131)</f>
+        <f aca="false">IF(OR(ISBLANK(A131),A131=" "),"",C131)</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="1" t="str">
+        <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D132" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A132),"",C132)</f>
+        <f aca="false">IF(OR(ISBLANK(A132),A132=" "),"",C132)</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="1" t="str">
+        <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D133" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A133),"",C133)</f>
+        <f aca="false">IF(OR(ISBLANK(A133),A133=" "),"",C133)</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="1" t="str">
+        <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D134" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A134),"",C134)</f>
+        <f aca="false">IF(OR(ISBLANK(A134),A134=" "),"",C134)</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="1" t="str">
+        <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D135" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A135),"",C135)</f>
+        <f aca="false">IF(OR(ISBLANK(A135),A135=" "),"",C135)</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="1" t="str">
+        <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D136" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A136),"",C136)</f>
+        <f aca="false">IF(OR(ISBLANK(A136),A136=" "),"",C136)</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="1" t="str">
+        <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D137" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A137),"",C137)</f>
+        <f aca="false">IF(OR(ISBLANK(A137),A137=" "),"",C137)</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="1" t="str">
+        <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D138" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A138),"",C138)</f>
+        <f aca="false">IF(OR(ISBLANK(A138),A138=" "),"",C138)</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="1" t="str">
+        <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D139" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A139),"",C139)</f>
+        <f aca="false">IF(OR(ISBLANK(A139),A139=" "),"",C139)</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="1" t="str">
+        <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D140" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A140),"",C140)</f>
+        <f aca="false">IF(OR(ISBLANK(A140),A140=" "),"",C140)</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="1" t="str">
+        <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D141" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A141),"",C141)</f>
+        <f aca="false">IF(OR(ISBLANK(A141),A141=" "),"",C141)</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="1" t="str">
+        <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D142" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A142),"",C142)</f>
+        <f aca="false">IF(OR(ISBLANK(A142),A142=" "),"",C142)</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="1" t="str">
+        <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D143" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A143),"",C143)</f>
+        <f aca="false">IF(OR(ISBLANK(A143),A143=" "),"",C143)</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="1" t="str">
+        <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D144" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A144),"",C144)</f>
+        <f aca="false">IF(OR(ISBLANK(A144),A144=" "),"",C144)</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="1" t="str">
+        <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D145" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A145),"",C145)</f>
+        <f aca="false">IF(OR(ISBLANK(A145),A145=" "),"",C145)</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="1" t="str">
+        <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D146" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A146),"",C146)</f>
+        <f aca="false">IF(OR(ISBLANK(A146),A146=" "),"",C146)</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="1" t="str">
+        <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D147" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A147),"",C147)</f>
+        <f aca="false">IF(OR(ISBLANK(A147),A147=" "),"",C147)</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="1" t="str">
+        <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D148" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A148),"",C148)</f>
+        <f aca="false">IF(OR(ISBLANK(A148),A148=" "),"",C148)</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="1" t="str">
+        <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D149" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A149),"",C149)</f>
+        <f aca="false">IF(OR(ISBLANK(A149),A149=" "),"",C149)</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="1" t="str">
+        <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D150" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A150),"",C150)</f>
+        <f aca="false">IF(OR(ISBLANK(A150),A150=" "),"",C150)</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="1" t="str">
+        <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D151" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A151),"",C151)</f>
+        <f aca="false">IF(OR(ISBLANK(A151),A151=" "),"",C151)</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="1" t="str">
+        <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D152" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A152),"",C152)</f>
+        <f aca="false">IF(OR(ISBLANK(A152),A152=" "),"",C152)</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="1" t="str">
+        <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D153" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A153),"",C153)</f>
+        <f aca="false">IF(OR(ISBLANK(A153),A153=" "),"",C153)</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="1" t="str">
+        <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D154" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A154),"",C154)</f>
+        <f aca="false">IF(OR(ISBLANK(A154),A154=" "),"",C154)</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="1" t="str">
+        <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D155" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A155),"",C155)</f>
+        <f aca="false">IF(OR(ISBLANK(A155),A155=" "),"",C155)</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="1" t="str">
+        <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D156" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A156),"",C156)</f>
+        <f aca="false">IF(OR(ISBLANK(A156),A156=" "),"",C156)</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="1" t="str">
+        <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D157" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A157),"",C157)</f>
+        <f aca="false">IF(OR(ISBLANK(A157),A157=" "),"",C157)</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="1" t="str">
+        <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D158" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A158),"",C158)</f>
+        <f aca="false">IF(OR(ISBLANK(A158),A158=" "),"",C158)</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="1" t="str">
+        <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D159" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A159),"",C159)</f>
+        <f aca="false">IF(OR(ISBLANK(A159),A159=" "),"",C159)</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="1" t="str">
+        <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D160" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A160),"",C160)</f>
+        <f aca="false">IF(OR(ISBLANK(A160),A160=" "),"",C160)</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="1" t="str">
+        <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D161" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A161),"",C161)</f>
+        <f aca="false">IF(OR(ISBLANK(A161),A161=" "),"",C161)</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="1" t="str">
+        <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D162" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A162),"",C162)</f>
+        <f aca="false">IF(OR(ISBLANK(A162),A162=" "),"",C162)</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C163" s="1" t="str">
+        <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D163" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A163),"",C163)</f>
+        <f aca="false">IF(OR(ISBLANK(A163),A163=" "),"",C163)</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C164" s="1" t="str">
+        <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D164" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A164),"",C164)</f>
+        <f aca="false">IF(OR(ISBLANK(A164),A164=" "),"",C164)</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="1" t="str">
+        <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D165" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A165),"",C165)</f>
+        <f aca="false">IF(OR(ISBLANK(A165),A165=" "),"",C165)</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="1" t="str">
+        <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D166" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A166),"",C166)</f>
+        <f aca="false">IF(OR(ISBLANK(A166),A166=" "),"",C166)</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="1" t="str">
+        <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D167" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A167),"",C167)</f>
+        <f aca="false">IF(OR(ISBLANK(A167),A167=" "),"",C167)</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="1" t="str">
+        <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D168" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A168),"",C168)</f>
+        <f aca="false">IF(OR(ISBLANK(A168),A168=" "),"",C168)</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C169" s="1" t="str">
+        <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D169" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A169),"",C169)</f>
+        <f aca="false">IF(OR(ISBLANK(A169),A169=" "),"",C169)</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="1" t="str">
+        <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D170" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A170),"",C170)</f>
+        <f aca="false">IF(OR(ISBLANK(A170),A170=" "),"",C170)</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="1" t="str">
+        <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D171" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A171),"",C171)</f>
+        <f aca="false">IF(OR(ISBLANK(A171),A171=" "),"",C171)</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="1" t="str">
+        <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D172" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A172),"",C172)</f>
+        <f aca="false">IF(OR(ISBLANK(A172),A172=" "),"",C172)</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="1" t="str">
+        <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D173" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A173),"",C173)</f>
+        <f aca="false">IF(OR(ISBLANK(A173),A173=" "),"",C173)</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="1" t="str">
+        <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D174" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A174),"",C174)</f>
+        <f aca="false">IF(OR(ISBLANK(A174),A174=" "),"",C174)</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="1" t="str">
+        <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D175" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A175),"",C175)</f>
+        <f aca="false">IF(OR(ISBLANK(A175),A175=" "),"",C175)</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C176" s="1" t="str">
+        <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D176" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A176),"",C176)</f>
+        <f aca="false">IF(OR(ISBLANK(A176),A176=" "),"",C176)</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="1" t="str">
+        <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D177" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A177),"",C177)</f>
+        <f aca="false">IF(OR(ISBLANK(A177),A177=" "),"",C177)</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="1" t="str">
+        <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D178" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A178),"",C178)</f>
+        <f aca="false">IF(OR(ISBLANK(A178),A178=" "),"",C178)</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="1" t="str">
+        <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D179" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A179),"",C179)</f>
+        <f aca="false">IF(OR(ISBLANK(A179),A179=" "),"",C179)</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="1" t="str">
+        <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D180" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A180),"",C180)</f>
+        <f aca="false">IF(OR(ISBLANK(A180),A180=" "),"",C180)</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="1" t="str">
+        <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D181" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A181),"",C181)</f>
+        <f aca="false">IF(OR(ISBLANK(A181),A181=" "),"",C181)</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="1" t="str">
+        <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D182" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A182),"",C182)</f>
+        <f aca="false">IF(OR(ISBLANK(A182),A182=" "),"",C182)</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="1" t="str">
+        <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D183" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A183),"",C183)</f>
+        <f aca="false">IF(OR(ISBLANK(A183),A183=" "),"",C183)</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="1" t="str">
+        <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D184" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A184),"",C184)</f>
+        <f aca="false">IF(OR(ISBLANK(A184),A184=" "),"",C184)</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="1" t="str">
+        <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D185" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A185),"",C185)</f>
+        <f aca="false">IF(OR(ISBLANK(A185),A185=" "),"",C185)</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="1" t="str">
+        <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D186" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A186),"",C186)</f>
+        <f aca="false">IF(OR(ISBLANK(A186),A186=" "),"",C186)</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="1" t="str">
+        <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D187" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A187),"",C187)</f>
+        <f aca="false">IF(OR(ISBLANK(A187),A187=" "),"",C187)</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="1" t="str">
+        <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D188" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A188),"",C188)</f>
+        <f aca="false">IF(OR(ISBLANK(A188),A188=" "),"",C188)</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C189" s="1" t="str">
+        <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D189" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A189),"",C189)</f>
+        <f aca="false">IF(OR(ISBLANK(A189),A189=" "),"",C189)</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="1" t="str">
+        <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D190" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A190),"",C190)</f>
+        <f aca="false">IF(OR(ISBLANK(A190),A190=" "),"",C190)</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="1" t="str">
+        <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D191" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A191),"",C191)</f>
+        <f aca="false">IF(OR(ISBLANK(A191),A191=" "),"",C191)</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="1" t="str">
+        <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D192" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A192),"",C192)</f>
+        <f aca="false">IF(OR(ISBLANK(A192),A192=" "),"",C192)</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="1" t="str">
+        <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D193" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A193),"",C193)</f>
+        <f aca="false">IF(OR(ISBLANK(A193),A193=" "),"",C193)</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="1" t="str">
+        <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D194" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A194),"",C194)</f>
+        <f aca="false">IF(OR(ISBLANK(A194),A194=" "),"",C194)</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="1" t="str">
+        <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D195" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A195),"",C195)</f>
+        <f aca="false">IF(OR(ISBLANK(A195),A195=" "),"",C195)</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="1" t="str">
+        <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D196" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A196),"",C196)</f>
+        <f aca="false">IF(OR(ISBLANK(A196),A196=" "),"",C196)</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="1" t="str">
+        <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D197" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A197),"",C197)</f>
+        <f aca="false">IF(OR(ISBLANK(A197),A197=" "),"",C197)</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="1" t="str">
+        <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D198" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A198),"",C198)</f>
+        <f aca="false">IF(OR(ISBLANK(A198),A198=" "),"",C198)</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="1" t="str">
+        <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D199" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A199),"",C199)</f>
+        <f aca="false">IF(OR(ISBLANK(A199),A199=" "),"",C199)</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="1" t="str">
+        <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D200" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A200),"",C200)</f>
+        <f aca="false">IF(OR(ISBLANK(A200),A200=" "),"",C200)</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="1" t="str">
+        <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D201" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A201),"",C201)</f>
+        <f aca="false">IF(OR(ISBLANK(A201),A201=" "),"",C201)</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="1" t="str">
+        <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D202" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A202),"",C202)</f>
+        <f aca="false">IF(OR(ISBLANK(A202),A202=" "),"",C202)</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="1" t="str">
+        <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D203" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A203),"",C203)</f>
+        <f aca="false">IF(OR(ISBLANK(A203),A203=" "),"",C203)</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="1" t="str">
+        <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D204" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A204),"",C204)</f>
+        <f aca="false">IF(OR(ISBLANK(A204),A204=" "),"",C204)</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="1" t="str">
+        <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D205" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A205),"",C205)</f>
+        <f aca="false">IF(OR(ISBLANK(A205),A205=" "),"",C205)</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="1" t="str">
+        <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D206" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A206),"",C206)</f>
+        <f aca="false">IF(OR(ISBLANK(A206),A206=" "),"",C206)</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="1" t="str">
+        <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D207" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A207),"",C207)</f>
+        <f aca="false">IF(OR(ISBLANK(A207),A207=" "),"",C207)</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="1" t="str">
+        <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D208" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A208),"",C208)</f>
+        <f aca="false">IF(OR(ISBLANK(A208),A208=" "),"",C208)</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="1" t="str">
+        <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D209" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A209),"",C209)</f>
+        <f aca="false">IF(OR(ISBLANK(A209),A209=" "),"",C209)</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="1" t="str">
+        <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D210" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A210),"",C210)</f>
+        <f aca="false">IF(OR(ISBLANK(A210),A210=" "),"",C210)</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="1" t="str">
+        <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D211" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A211),"",C211)</f>
+        <f aca="false">IF(OR(ISBLANK(A211),A211=" "),"",C211)</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="1" t="str">
+        <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D212" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A212),"",C212)</f>
+        <f aca="false">IF(OR(ISBLANK(A212),A212=" "),"",C212)</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="1" t="str">
+        <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D213" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A213),"",C213)</f>
+        <f aca="false">IF(OR(ISBLANK(A213),A213=" "),"",C213)</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="1" t="str">
+        <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D214" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A214),"",C214)</f>
+        <f aca="false">IF(OR(ISBLANK(A214),A214=" "),"",C214)</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="1" t="str">
+        <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D215" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A215),"",C215)</f>
+        <f aca="false">IF(OR(ISBLANK(A215),A215=" "),"",C215)</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="1" t="str">
+        <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D216" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A216),"",C216)</f>
+        <f aca="false">IF(OR(ISBLANK(A216),A216=" "),"",C216)</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="1" t="str">
+        <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D217" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A217),"",C217)</f>
+        <f aca="false">IF(OR(ISBLANK(A217),A217=" "),"",C217)</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="1" t="str">
+        <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D218" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A218),"",C218)</f>
+        <f aca="false">IF(OR(ISBLANK(A218),A218=" "),"",C218)</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="1" t="str">
+        <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D219" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A219),"",C219)</f>
+        <f aca="false">IF(OR(ISBLANK(A219),A219=" "),"",C219)</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="1" t="str">
+        <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D220" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A220),"",C220)</f>
+        <f aca="false">IF(OR(ISBLANK(A220),A220=" "),"",C220)</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="1" t="str">
+        <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D221" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A221),"",C221)</f>
+        <f aca="false">IF(OR(ISBLANK(A221),A221=" "),"",C221)</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="1" t="str">
+        <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D222" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A222),"",C222)</f>
+        <f aca="false">IF(OR(ISBLANK(A222),A222=" "),"",C222)</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="1" t="str">
+        <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D223" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A223),"",C223)</f>
+        <f aca="false">IF(OR(ISBLANK(A223),A223=" "),"",C223)</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="1" t="str">
+        <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D224" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A224),"",C224)</f>
+        <f aca="false">IF(OR(ISBLANK(A224),A224=" "),"",C224)</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="1" t="str">
+        <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D225" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A225),"",C225)</f>
+        <f aca="false">IF(OR(ISBLANK(A225),A225=" "),"",C225)</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="1" t="str">
+        <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D226" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A226),"",C226)</f>
+        <f aca="false">IF(OR(ISBLANK(A226),A226=" "),"",C226)</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="1" t="str">
+        <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D227" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A227),"",C227)</f>
+        <f aca="false">IF(OR(ISBLANK(A227),A227=" "),"",C227)</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="1" t="str">
+        <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D228" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A228),"",C228)</f>
+        <f aca="false">IF(OR(ISBLANK(A228),A228=" "),"",C228)</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C229" s="1" t="str">
+        <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D229" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A229),"",C229)</f>
+        <f aca="false">IF(OR(ISBLANK(A229),A229=" "),"",C229)</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C230" s="1" t="str">
+        <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D230" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A230),"",C230)</f>
+        <f aca="false">IF(OR(ISBLANK(A230),A230=" "),"",C230)</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="1" t="str">
+        <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D231" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A231),"",C231)</f>
+        <f aca="false">IF(OR(ISBLANK(A231),A231=" "),"",C231)</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C232" s="1" t="str">
+        <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D232" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A232),"",C232)</f>
+        <f aca="false">IF(OR(ISBLANK(A232),A232=" "),"",C232)</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C233" s="1" t="str">
+        <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D233" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A233),"",C233)</f>
+        <f aca="false">IF(OR(ISBLANK(A233),A233=" "),"",C233)</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="1" t="str">
+        <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D234" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A234),"",C234)</f>
+        <f aca="false">IF(OR(ISBLANK(A234),A234=" "),"",C234)</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="1" t="str">
+        <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D235" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A235),"",C235)</f>
+        <f aca="false">IF(OR(ISBLANK(A235),A235=" "),"",C235)</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="1" t="str">
+        <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D236" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A236),"",C236)</f>
+        <f aca="false">IF(OR(ISBLANK(A236),A236=" "),"",C236)</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="1" t="str">
+        <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D237" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A237),"",C237)</f>
+        <f aca="false">IF(OR(ISBLANK(A237),A237=" "),"",C237)</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C238" s="1" t="str">
+        <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D238" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A238),"",C238)</f>
+        <f aca="false">IF(OR(ISBLANK(A238),A238=" "),"",C238)</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C239" s="1" t="str">
+        <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D239" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A239),"",C239)</f>
+        <f aca="false">IF(OR(ISBLANK(A239),A239=" "),"",C239)</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C240" s="1" t="str">
+        <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D240" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A240),"",C240)</f>
+        <f aca="false">IF(OR(ISBLANK(A240),A240=" "),"",C240)</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C241" s="1" t="str">
+        <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D241" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A241),"",C241)</f>
+        <f aca="false">IF(OR(ISBLANK(A241),A241=" "),"",C241)</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C242" s="1" t="str">
+        <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D242" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A242),"",C242)</f>
+        <f aca="false">IF(OR(ISBLANK(A242),A242=" "),"",C242)</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C243" s="1" t="str">
+        <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D243" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A243),"",C243)</f>
+        <f aca="false">IF(OR(ISBLANK(A243),A243=" "),"",C243)</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C244" s="1" t="str">
+        <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D244" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A244),"",C244)</f>
+        <f aca="false">IF(OR(ISBLANK(A244),A244=" "),"",C244)</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="1" t="str">
+        <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D245" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A245),"",C245)</f>
+        <f aca="false">IF(OR(ISBLANK(A245),A245=" "),"",C245)</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C246" s="1" t="str">
+        <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D246" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A246),"",C246)</f>
+        <f aca="false">IF(OR(ISBLANK(A246),A246=" "),"",C246)</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C247" s="1" t="str">
+        <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D247" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A247),"",C247)</f>
+        <f aca="false">IF(OR(ISBLANK(A247),A247=" "),"",C247)</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C248" s="1" t="str">
+        <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D248" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A248),"",C248)</f>
+        <f aca="false">IF(OR(ISBLANK(A248),A248=" "),"",C248)</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C249" s="1" t="str">
+        <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D249" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A249),"",C249)</f>
+        <f aca="false">IF(OR(ISBLANK(A249),A249=" "),"",C249)</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C250" s="1" t="str">
+        <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D250" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A250),"",C250)</f>
+        <f aca="false">IF(OR(ISBLANK(A250),A250=" "),"",C250)</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C251" s="1" t="str">
+        <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D251" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A251),"",C251)</f>
+        <f aca="false">IF(OR(ISBLANK(A251),A251=" "),"",C251)</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C252" s="1" t="str">
+        <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D252" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A252),"",C252)</f>
+        <f aca="false">IF(OR(ISBLANK(A252),A252=" "),"",C252)</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C253" s="1" t="str">
+        <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D253" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A253),"",C253)</f>
+        <f aca="false">IF(OR(ISBLANK(A253),A253=" "),"",C253)</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C254" s="1" t="str">
+        <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D254" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A254),"",C254)</f>
+        <f aca="false">IF(OR(ISBLANK(A254),A254=" "),"",C254)</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C255" s="1" t="str">
+        <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D255" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A255),"",C255)</f>
+        <f aca="false">IF(OR(ISBLANK(A255),A255=" "),"",C255)</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C256" s="1" t="str">
+        <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D256" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A256),"",C256)</f>
+        <f aca="false">IF(OR(ISBLANK(A256),A256=" "),"",C256)</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C257" s="1" t="str">
+        <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D257" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A257),"",C257)</f>
+        <f aca="false">IF(OR(ISBLANK(A257),A257=" "),"",C257)</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C258" s="1" t="str">
+        <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D258" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A258),"",C258)</f>
+        <f aca="false">IF(OR(ISBLANK(A258),A258=" "),"",C258)</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="1" t="str">
+        <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D259" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A259),"",C259)</f>
+        <f aca="false">IF(OR(ISBLANK(A259),A259=" "),"",C259)</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C260" s="1" t="str">
+        <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D260" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A260),"",C260)</f>
+        <f aca="false">IF(OR(ISBLANK(A260),A260=" "),"",C260)</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C261" s="1" t="str">
+        <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D261" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A261),"",C261)</f>
+        <f aca="false">IF(OR(ISBLANK(A261),A261=" "),"",C261)</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C262" s="1" t="str">
+        <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D262" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A262),"",C262)</f>
+        <f aca="false">IF(OR(ISBLANK(A262),A262=" "),"",C262)</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C263" s="1" t="str">
+        <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D263" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A263),"",C263)</f>
+        <f aca="false">IF(OR(ISBLANK(A263),A263=" "),"",C263)</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C264" s="1" t="str">
+        <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D264" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A264),"",C264)</f>
+        <f aca="false">IF(OR(ISBLANK(A264),A264=" "),"",C264)</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C265" s="1" t="str">
+        <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D265" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A265),"",C265)</f>
+        <f aca="false">IF(OR(ISBLANK(A265),A265=" "),"",C265)</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C266" s="1" t="str">
+        <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D266" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A266),"",C266)</f>
+        <f aca="false">IF(OR(ISBLANK(A266),A266=" "),"",C266)</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C267" s="1" t="str">
+        <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D267" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A267),"",C267)</f>
+        <f aca="false">IF(OR(ISBLANK(A267),A267=" "),"",C267)</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C268" s="1" t="str">
+        <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D268" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A268),"",C268)</f>
+        <f aca="false">IF(OR(ISBLANK(A268),A268=" "),"",C268)</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C269" s="1" t="str">
+        <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D269" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A269),"",C269)</f>
+        <f aca="false">IF(OR(ISBLANK(A269),A269=" "),"",C269)</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" s="1" t="str">
+        <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D270" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A270),"",C270)</f>
+        <f aca="false">IF(OR(ISBLANK(A270),A270=" "),"",C270)</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C271" s="1" t="str">
+        <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D271" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A271),"",C271)</f>
+        <f aca="false">IF(OR(ISBLANK(A271),A271=" "),"",C271)</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C272" s="1" t="str">
+        <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D272" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A272),"",C272)</f>
+        <f aca="false">IF(OR(ISBLANK(A272),A272=" "),"",C272)</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="1" t="str">
+        <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D273" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A273),"",C273)</f>
+        <f aca="false">IF(OR(ISBLANK(A273),A273=" "),"",C273)</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="1" t="str">
+        <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D274" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A274),"",C274)</f>
+        <f aca="false">IF(OR(ISBLANK(A274),A274=" "),"",C274)</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="1" t="str">
+        <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D275" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A275),"",C275)</f>
+        <f aca="false">IF(OR(ISBLANK(A275),A275=" "),"",C275)</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C276" s="1" t="str">
+        <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D276" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A276),"",C276)</f>
+        <f aca="false">IF(OR(ISBLANK(A276),A276=" "),"",C276)</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C277" s="1" t="str">
+        <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D277" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A277),"",C277)</f>
+        <f aca="false">IF(OR(ISBLANK(A277),A277=" "),"",C277)</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C278" s="1" t="str">
+        <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D278" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A278),"",C278)</f>
+        <f aca="false">IF(OR(ISBLANK(A278),A278=" "),"",C278)</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C279" s="1" t="str">
+        <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D279" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A279),"",C279)</f>
+        <f aca="false">IF(OR(ISBLANK(A279),A279=" "),"",C279)</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C280" s="1" t="str">
+        <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D280" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A280),"",C280)</f>
+        <f aca="false">IF(OR(ISBLANK(A280),A280=" "),"",C280)</f>
         <v/>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="2"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="1" t="str">
+        <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D281" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A281),"",C281)</f>
+        <f aca="false">IF(OR(ISBLANK(A281),A281=" "),"",C281)</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C282" s="1" t="str">
+        <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D282" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A282),"",C282)</f>
+        <f aca="false">IF(OR(ISBLANK(A282),A282=" "),"",C282)</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C283" s="1" t="str">
+        <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D283" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A283),"",C283)</f>
+        <f aca="false">IF(OR(ISBLANK(A283),A283=" "),"",C283)</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C284" s="1" t="str">
+        <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D284" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A284),"",C284)</f>
+        <f aca="false">IF(OR(ISBLANK(A284),A284=" "),"",C284)</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C285" s="1" t="str">
+        <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D285" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A285),"",C285)</f>
+        <f aca="false">IF(OR(ISBLANK(A285),A285=" "),"",C285)</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C286" s="1" t="str">
+        <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D286" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A286),"",C286)</f>
+        <f aca="false">IF(OR(ISBLANK(A286),A286=" "),"",C286)</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C287" s="1" t="str">
+        <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D287" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A287),"",C287)</f>
+        <f aca="false">IF(OR(ISBLANK(A287),A287=" "),"",C287)</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C288" s="1" t="str">
+        <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D288" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A288),"",C288)</f>
+        <f aca="false">IF(OR(ISBLANK(A288),A288=" "),"",C288)</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C289" s="1" t="str">
+        <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D289" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A289),"",C289)</f>
+        <f aca="false">IF(OR(ISBLANK(A289),A289=" "),"",C289)</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C290" s="1" t="str">
+        <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D290" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A290),"",C290)</f>
+        <f aca="false">IF(OR(ISBLANK(A290),A290=" "),"",C290)</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C291" s="1" t="str">
+        <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D291" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A291),"",C291)</f>
+        <f aca="false">IF(OR(ISBLANK(A291),A291=" "),"",C291)</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C292" s="1" t="str">
+        <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D292" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A292),"",C292)</f>
+        <f aca="false">IF(OR(ISBLANK(A292),A292=" "),"",C292)</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C293" s="1" t="str">
+        <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D293" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A293),"",C293)</f>
+        <f aca="false">IF(OR(ISBLANK(A293),A293=" "),"",C293)</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="1" t="str">
+        <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D294" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A294),"",C294)</f>
+        <f aca="false">IF(OR(ISBLANK(A294),A294=" "),"",C294)</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="1" t="str">
+        <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D295" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A295),"",C295)</f>
+        <f aca="false">IF(OR(ISBLANK(A295),A295=" "),"",C295)</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C296" s="1" t="str">
+        <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D296" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A296),"",C296)</f>
+        <f aca="false">IF(OR(ISBLANK(A296),A296=" "),"",C296)</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C297" s="1" t="str">
+        <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D297" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A297),"",C297)</f>
+        <f aca="false">IF(OR(ISBLANK(A297),A297=" "),"",C297)</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C298" s="1" t="str">
+        <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D298" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A298),"",C298)</f>
+        <f aca="false">IF(OR(ISBLANK(A298),A298=" "),"",C298)</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C299" s="1" t="str">
+        <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D299" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A299),"",C299)</f>
+        <f aca="false">IF(OR(ISBLANK(A299),A299=" "),"",C299)</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C300" s="1" t="str">
+        <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D300" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A300),"",C300)</f>
+        <f aca="false">IF(OR(ISBLANK(A300),A300=" "),"",C300)</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C301" s="1" t="str">
+        <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D301" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A301),"",C301)</f>
+        <f aca="false">IF(OR(ISBLANK(A301),A301=" "),"",C301)</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="1" t="str">
+        <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D302" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A302),"",C302)</f>
+        <f aca="false">IF(OR(ISBLANK(A302),A302=" "),"",C302)</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="1" t="str">
+        <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D303" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A303),"",C303)</f>
+        <f aca="false">IF(OR(ISBLANK(A303),A303=" "),"",C303)</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="1" t="str">
+        <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D304" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A304),"",C304)</f>
+        <f aca="false">IF(OR(ISBLANK(A304),A304=" "),"",C304)</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C305" s="1" t="str">
+        <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D305" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A305),"",C305)</f>
+        <f aca="false">IF(OR(ISBLANK(A305),A305=" "),"",C305)</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C306" s="1" t="str">
+        <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D306" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A306),"",C306)</f>
+        <f aca="false">IF(OR(ISBLANK(A306),A306=" "),"",C306)</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C307" s="1" t="str">
+        <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D307" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A307),"",C307)</f>
+        <f aca="false">IF(OR(ISBLANK(A307),A307=" "),"",C307)</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C308" s="1" t="str">
+        <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D308" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A308),"",C308)</f>
+        <f aca="false">IF(OR(ISBLANK(A308),A308=" "),"",C308)</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C309" s="1" t="str">
+        <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D309" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A309),"",C309)</f>
+        <f aca="false">IF(OR(ISBLANK(A309),A309=" "),"",C309)</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C310" s="1" t="str">
+        <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D310" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A310),"",C310)</f>
+        <f aca="false">IF(OR(ISBLANK(A310),A310=" "),"",C310)</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C311" s="1" t="str">
+        <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D311" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A311),"",C311)</f>
+        <f aca="false">IF(OR(ISBLANK(A311),A311=" "),"",C311)</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C312" s="1" t="str">
+        <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D312" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A312),"",C312)</f>
+        <f aca="false">IF(OR(ISBLANK(A312),A312=" "),"",C312)</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C313" s="1" t="str">
+        <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D313" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A313),"",C313)</f>
+        <f aca="false">IF(OR(ISBLANK(A313),A313=" "),"",C313)</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C314" s="1" t="str">
+        <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D314" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A314),"",C314)</f>
+        <f aca="false">IF(OR(ISBLANK(A314),A314=" "),"",C314)</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C315" s="1" t="str">
+        <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D315" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A315),"",C315)</f>
+        <f aca="false">IF(OR(ISBLANK(A315),A315=" "),"",C315)</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C316" s="1" t="str">
+        <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D316" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A316),"",C316)</f>
+        <f aca="false">IF(OR(ISBLANK(A316),A316=" "),"",C316)</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C317" s="1" t="str">
+        <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D317" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A317),"",C317)</f>
+        <f aca="false">IF(OR(ISBLANK(A317),A317=" "),"",C317)</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C318" s="1" t="str">
+        <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D318" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A318),"",C318)</f>
+        <f aca="false">IF(OR(ISBLANK(A318),A318=" "),"",C318)</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C319" s="1" t="str">
+        <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D319" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A319),"",C319)</f>
+        <f aca="false">IF(OR(ISBLANK(A319),A319=" "),"",C319)</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C320" s="1" t="str">
+        <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D320" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A320),"",C320)</f>
+        <f aca="false">IF(OR(ISBLANK(A320),A320=" "),"",C320)</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C321" s="1" t="str">
+        <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D321" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A321),"",C321)</f>
+        <f aca="false">IF(OR(ISBLANK(A321),A321=" "),"",C321)</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C322" s="1" t="str">
+        <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D322" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A322),"",C322)</f>
+        <f aca="false">IF(OR(ISBLANK(A322),A322=" "),"",C322)</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C323" s="1" t="str">
+        <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D323" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A323),"",C323)</f>
+        <f aca="false">IF(OR(ISBLANK(A323),A323=" "),"",C323)</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C324" s="1" t="str">
+        <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D324" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A324),"",C324)</f>
+        <f aca="false">IF(OR(ISBLANK(A324),A324=" "),"",C324)</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C325" s="1" t="str">
+        <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D325" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A325),"",C325)</f>
+        <f aca="false">IF(OR(ISBLANK(A325),A325=" "),"",C325)</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C326" s="1" t="str">
+        <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D326" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A326),"",C326)</f>
+        <f aca="false">IF(OR(ISBLANK(A326),A326=" "),"",C326)</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C327" s="1" t="str">
+        <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D327" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A327),"",C327)</f>
+        <f aca="false">IF(OR(ISBLANK(A327),A327=" "),"",C327)</f>
         <v/>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C328" s="1" t="str">
+        <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D328" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A328),"",C328)</f>
+        <f aca="false">IF(OR(ISBLANK(A328),A328=" "),"",C328)</f>
         <v/>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C329" s="1" t="str">
+        <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D329" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A329),"",C329)</f>
+        <f aca="false">IF(OR(ISBLANK(A329),A329=" "),"",C329)</f>
         <v/>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C330" s="1" t="str">
+        <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D330" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A330),"",C330)</f>
+        <f aca="false">IF(OR(ISBLANK(A330),A330=" "),"",C330)</f>
         <v/>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C331" s="1" t="str">
+        <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D331" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A331),"",C331)</f>
+        <f aca="false">IF(OR(ISBLANK(A331),A331=" "),"",C331)</f>
         <v/>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C332" s="1" t="str">
+        <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D332" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A332),"",C332)</f>
+        <f aca="false">IF(OR(ISBLANK(A332),A332=" "),"",C332)</f>
         <v/>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C333" s="1" t="str">
+        <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D333" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A333),"",C333)</f>
+        <f aca="false">IF(OR(ISBLANK(A333),A333=" "),"",C333)</f>
         <v/>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C334" s="1" t="str">
+        <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D334" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A334),"",C334)</f>
+        <f aca="false">IF(OR(ISBLANK(A334),A334=" "),"",C334)</f>
         <v/>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C335" s="1" t="str">
+        <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D335" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A335),"",C335)</f>
+        <f aca="false">IF(OR(ISBLANK(A335),A335=" "),"",C335)</f>
         <v/>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C336" s="1" t="str">
+        <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D336" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A336),"",C336)</f>
+        <f aca="false">IF(OR(ISBLANK(A336),A336=" "),"",C336)</f>
         <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C337" s="1" t="str">
+        <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D337" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A337),"",C337)</f>
+        <f aca="false">IF(OR(ISBLANK(A337),A337=" "),"",C337)</f>
         <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C338" s="1" t="str">
+        <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D338" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A338),"",C338)</f>
+        <f aca="false">IF(OR(ISBLANK(A338),A338=" "),"",C338)</f>
         <v/>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C339" s="1" t="str">
+        <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D339" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A339),"",C339)</f>
+        <f aca="false">IF(OR(ISBLANK(A339),A339=" "),"",C339)</f>
         <v/>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C340" s="1" t="str">
+        <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D340" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A340),"",C340)</f>
+        <f aca="false">IF(OR(ISBLANK(A340),A340=" "),"",C340)</f>
         <v/>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C341" s="1" t="str">
+        <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D341" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A341),"",C341)</f>
+        <f aca="false">IF(OR(ISBLANK(A341),A341=" "),"",C341)</f>
         <v/>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C342" s="1" t="str">
+        <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D342" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A342),"",C342)</f>
+        <f aca="false">IF(OR(ISBLANK(A342),A342=" "),"",C342)</f>
         <v/>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C343" s="1" t="str">
+        <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D343" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A343),"",C343)</f>
+        <f aca="false">IF(OR(ISBLANK(A343),A343=" "),"",C343)</f>
         <v/>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C344" s="1" t="str">
+        <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D344" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A344),"",C344)</f>
+        <f aca="false">IF(OR(ISBLANK(A344),A344=" "),"",C344)</f>
         <v/>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C345" s="1" t="str">
+        <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D345" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A345),"",C345)</f>
+        <f aca="false">IF(OR(ISBLANK(A345),A345=" "),"",C345)</f>
         <v/>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C346" s="1" t="str">
+        <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D346" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A346),"",C346)</f>
+        <f aca="false">IF(OR(ISBLANK(A346),A346=" "),"",C346)</f>
         <v/>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C347" s="1" t="str">
+        <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D347" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A347),"",C347)</f>
+        <f aca="false">IF(OR(ISBLANK(A347),A347=" "),"",C347)</f>
         <v/>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C348" s="1" t="str">
+        <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D348" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A348),"",C348)</f>
+        <f aca="false">IF(OR(ISBLANK(A348),A348=" "),"",C348)</f>
         <v/>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C349" s="1" t="str">
+        <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D349" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A349),"",C349)</f>
+        <f aca="false">IF(OR(ISBLANK(A349),A349=" "),"",C349)</f>
         <v/>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C350" s="1" t="str">
+        <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D350" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A350),"",C350)</f>
+        <f aca="false">IF(OR(ISBLANK(A350),A350=" "),"",C350)</f>
         <v/>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C351" s="1" t="str">
+        <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D351" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A351),"",C351)</f>
+        <f aca="false">IF(OR(ISBLANK(A351),A351=" "),"",C351)</f>
         <v/>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C352" s="1" t="str">
+        <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D352" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A352),"",C352)</f>
+        <f aca="false">IF(OR(ISBLANK(A352),A352=" "),"",C352)</f>
         <v/>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C353" s="1" t="str">
+        <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D353" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A353),"",C353)</f>
+        <f aca="false">IF(OR(ISBLANK(A353),A353=" "),"",C353)</f>
         <v/>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C354" s="1" t="str">
+        <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D354" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A354),"",C354)</f>
+        <f aca="false">IF(OR(ISBLANK(A354),A354=" "),"",C354)</f>
         <v/>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C355" s="1" t="str">
+        <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D355" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A355),"",C355)</f>
+        <f aca="false">IF(OR(ISBLANK(A355),A355=" "),"",C355)</f>
         <v/>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C356" s="1" t="str">
+        <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D356" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A356),"",C356)</f>
+        <f aca="false">IF(OR(ISBLANK(A356),A356=" "),"",C356)</f>
         <v/>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C357" s="1" t="str">
+        <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D357" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A357),"",C357)</f>
+        <f aca="false">IF(OR(ISBLANK(A357),A357=" "),"",C357)</f>
         <v/>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C358" s="1" t="str">
+        <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D358" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A358),"",C358)</f>
+        <f aca="false">IF(OR(ISBLANK(A358),A358=" "),"",C358)</f>
         <v/>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="1" t="str">
+        <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D359" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A359),"",C359)</f>
+        <f aca="false">IF(OR(ISBLANK(A359),A359=" "),"",C359)</f>
         <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C360" s="1" t="str">
+        <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D360" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A360),"",C360)</f>
+        <f aca="false">IF(OR(ISBLANK(A360),A360=" "),"",C360)</f>
         <v/>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C361" s="1" t="str">
+        <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D361" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A361),"",C361)</f>
+        <f aca="false">IF(OR(ISBLANK(A361),A361=" "),"",C361)</f>
         <v/>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C362" s="1" t="str">
+        <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D362" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A362),"",C362)</f>
+        <f aca="false">IF(OR(ISBLANK(A362),A362=" "),"",C362)</f>
         <v/>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C363" s="1" t="str">
+        <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D363" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A363),"",C363)</f>
+        <f aca="false">IF(OR(ISBLANK(A363),A363=" "),"",C363)</f>
         <v/>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C364" s="1" t="str">
+        <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D364" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A364),"",C364)</f>
+        <f aca="false">IF(OR(ISBLANK(A364),A364=" "),"",C364)</f>
         <v/>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C365" s="1" t="str">
+        <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D365" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A365),"",C365)</f>
+        <f aca="false">IF(OR(ISBLANK(A365),A365=" "),"",C365)</f>
         <v/>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C366" s="1" t="str">
+        <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D366" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A366),"",C366)</f>
+        <f aca="false">IF(OR(ISBLANK(A366),A366=" "),"",C366)</f>
         <v/>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C367" s="1" t="str">
+        <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D367" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A367),"",C367)</f>
+        <f aca="false">IF(OR(ISBLANK(A367),A367=" "),"",C367)</f>
         <v/>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C368" s="1" t="str">
+        <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D368" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A368),"",C368)</f>
+        <f aca="false">IF(OR(ISBLANK(A368),A368=" "),"",C368)</f>
         <v/>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C369" s="1" t="str">
+        <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D369" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A369),"",C369)</f>
+        <f aca="false">IF(OR(ISBLANK(A369),A369=" "),"",C369)</f>
         <v/>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C370" s="1" t="str">
+        <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D370" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A370),"",C370)</f>
+        <f aca="false">IF(OR(ISBLANK(A370),A370=" "),"",C370)</f>
         <v/>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C371" s="1" t="str">
+        <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D371" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A371),"",C371)</f>
+        <f aca="false">IF(OR(ISBLANK(A371),A371=" "),"",C371)</f>
         <v/>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C372" s="1" t="str">
+        <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D372" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A372),"",C372)</f>
+        <f aca="false">IF(OR(ISBLANK(A372),A372=" "),"",C372)</f>
         <v/>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C373" s="1" t="str">
+        <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D373" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A373),"",C373)</f>
+        <f aca="false">IF(OR(ISBLANK(A373),A373=" "),"",C373)</f>
         <v/>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C374" s="1" t="str">
+        <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D374" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A374),"",C374)</f>
+        <f aca="false">IF(OR(ISBLANK(A374),A374=" "),"",C374)</f>
         <v/>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C375" s="1" t="str">
+        <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D375" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A375),"",C375)</f>
+        <f aca="false">IF(OR(ISBLANK(A375),A375=" "),"",C375)</f>
         <v/>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C376" s="1" t="str">
+        <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D376" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A376),"",C376)</f>
+        <f aca="false">IF(OR(ISBLANK(A376),A376=" "),"",C376)</f>
         <v/>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C377" s="1" t="str">
+        <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D377" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A377),"",C377)</f>
+        <f aca="false">IF(OR(ISBLANK(A377),A377=" "),"",C377)</f>
         <v/>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C378" s="1" t="str">
+        <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D378" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A378),"",C378)</f>
+        <f aca="false">IF(OR(ISBLANK(A378),A378=" "),"",C378)</f>
         <v/>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C379" s="1" t="str">
+        <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D379" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A379),"",C379)</f>
+        <f aca="false">IF(OR(ISBLANK(A379),A379=" "),"",C379)</f>
         <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C380" s="1" t="str">
+        <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D380" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A380),"",C380)</f>
+        <f aca="false">IF(OR(ISBLANK(A380),A380=" "),"",C380)</f>
         <v/>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C381" s="1" t="str">
+        <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D381" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A381),"",C381)</f>
+        <f aca="false">IF(OR(ISBLANK(A381),A381=" "),"",C381)</f>
         <v/>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C382" s="1" t="str">
+        <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D382" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A382),"",C382)</f>
+        <f aca="false">IF(OR(ISBLANK(A382),A382=" "),"",C382)</f>
         <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C383" s="1" t="str">
+        <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D383" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A383),"",C383)</f>
+        <f aca="false">IF(OR(ISBLANK(A383),A383=" "),"",C383)</f>
         <v/>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C384" s="1" t="str">
+        <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D384" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A384),"",C384)</f>
+        <f aca="false">IF(OR(ISBLANK(A384),A384=" "),"",C384)</f>
         <v/>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C385" s="1" t="str">
+        <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D385" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A385),"",C385)</f>
+        <f aca="false">IF(OR(ISBLANK(A385),A385=" "),"",C385)</f>
         <v/>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C386" s="1" t="str">
+        <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D386" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A386),"",C386)</f>
+        <f aca="false">IF(OR(ISBLANK(A386),A386=" "),"",C386)</f>
         <v/>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C387" s="1" t="str">
+        <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D387" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A387),"",C387)</f>
+        <f aca="false">IF(OR(ISBLANK(A387),A387=" "),"",C387)</f>
         <v/>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C388" s="1" t="str">
+        <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D388" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A388),"",C388)</f>
+        <f aca="false">IF(OR(ISBLANK(A388),A388=" "),"",C388)</f>
         <v/>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C389" s="1" t="str">
+        <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D389" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A389),"",C389)</f>
+        <f aca="false">IF(OR(ISBLANK(A389),A389=" "),"",C389)</f>
         <v/>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C390" s="1" t="str">
+        <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D390" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A390),"",C390)</f>
+        <f aca="false">IF(OR(ISBLANK(A390),A390=" "),"",C390)</f>
         <v/>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C391" s="1" t="str">
+        <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D391" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A391),"",C391)</f>
+        <f aca="false">IF(OR(ISBLANK(A391),A391=" "),"",C391)</f>
         <v/>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C392" s="1" t="str">
+        <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D392" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A392),"",C392)</f>
+        <f aca="false">IF(OR(ISBLANK(A392),A392=" "),"",C392)</f>
         <v/>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C393" s="1" t="str">
+        <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D393" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A393),"",C393)</f>
+        <f aca="false">IF(OR(ISBLANK(A393),A393=" "),"",C393)</f>
         <v/>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C394" s="1" t="str">
+        <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D394" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A394),"",C394)</f>
+        <f aca="false">IF(OR(ISBLANK(A394),A394=" "),"",C394)</f>
         <v/>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C395" s="1" t="str">
+        <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D395" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A395),"",C395)</f>
+        <f aca="false">IF(OR(ISBLANK(A395),A395=" "),"",C395)</f>
         <v/>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C396" s="1" t="str">
+        <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D396" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A396),"",C396)</f>
+        <f aca="false">IF(OR(ISBLANK(A396),A396=" "),"",C396)</f>
         <v/>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C397" s="1" t="str">
+        <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D397" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A397),"",C397)</f>
+        <f aca="false">IF(OR(ISBLANK(A397),A397=" "),"",C397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C398" s="1" t="str">
+        <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D398" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A398),"",C398)</f>
+        <f aca="false">IF(OR(ISBLANK(A398),A398=" "),"",C398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C399" s="1" t="str">
+        <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D399" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A399),"",C399)</f>
+        <f aca="false">IF(OR(ISBLANK(A399),A399=" "),"",C399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C400" s="1" t="str">
+        <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D400" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A400),"",C400)</f>
+        <f aca="false">IF(OR(ISBLANK(A400),A400=" "),"",C400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C401" s="1" t="str">
+        <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D401" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A401),"",C401)</f>
+        <f aca="false">IF(OR(ISBLANK(A401),A401=" "),"",C401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C402" s="1" t="str">
+        <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D402" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A402),"",C402)</f>
+        <f aca="false">IF(OR(ISBLANK(A402),A402=" "),"",C402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C403" s="1" t="str">
+        <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D403" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A403),"",C403)</f>
+        <f aca="false">IF(OR(ISBLANK(A403),A403=" "),"",C403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C404" s="1" t="str">
+        <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D404" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A404),"",C404)</f>
+        <f aca="false">IF(OR(ISBLANK(A404),A404=" "),"",C404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C405" s="1" t="str">
+        <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D405" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A405),"",C405)</f>
+        <f aca="false">IF(OR(ISBLANK(A405),A405=" "),"",C405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C406" s="1" t="str">
+        <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D406" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A406),"",C406)</f>
+        <f aca="false">IF(OR(ISBLANK(A406),A406=" "),"",C406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C407" s="1" t="str">
+        <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D407" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A407),"",C407)</f>
+        <f aca="false">IF(OR(ISBLANK(A407),A407=" "),"",C407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C408" s="1" t="str">
+        <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D408" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A408),"",C408)</f>
+        <f aca="false">IF(OR(ISBLANK(A408),A408=" "),"",C408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C409" s="1" t="str">
+        <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D409" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A409),"",C409)</f>
+        <f aca="false">IF(OR(ISBLANK(A409),A409=" "),"",C409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C410" s="1" t="str">
+        <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D410" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A410),"",C410)</f>
+        <f aca="false">IF(OR(ISBLANK(A410),A410=" "),"",C410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C411" s="1" t="str">
+        <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D411" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A411),"",C411)</f>
+        <f aca="false">IF(OR(ISBLANK(A411),A411=" "),"",C411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C412" s="1" t="str">
+        <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D412" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A412),"",C412)</f>
+        <f aca="false">IF(OR(ISBLANK(A412),A412=" "),"",C412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C413" s="1" t="str">
+        <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D413" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A413),"",C413)</f>
+        <f aca="false">IF(OR(ISBLANK(A413),A413=" "),"",C413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C414" s="1" t="str">
+        <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D414" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A414),"",C414)</f>
+        <f aca="false">IF(OR(ISBLANK(A414),A414=" "),"",C414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C415" s="1" t="str">
+        <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D415" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A415),"",C415)</f>
+        <f aca="false">IF(OR(ISBLANK(A415),A415=" "),"",C415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C416" s="1" t="str">
+        <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D416" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A416),"",C416)</f>
+        <f aca="false">IF(OR(ISBLANK(A416),A416=" "),"",C416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C417" s="1" t="str">
+        <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D417" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A417),"",C417)</f>
+        <f aca="false">IF(OR(ISBLANK(A417),A417=" "),"",C417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C418" s="1" t="str">
+        <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D418" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A418),"",C418)</f>
+        <f aca="false">IF(OR(ISBLANK(A418),A418=" "),"",C418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C419" s="1" t="str">
+        <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D419" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A419),"",C419)</f>
+        <f aca="false">IF(OR(ISBLANK(A419),A419=" "),"",C419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C420" s="1" t="str">
+        <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D420" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A420),"",C420)</f>
+        <f aca="false">IF(OR(ISBLANK(A420),A420=" "),"",C420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C421" s="1" t="str">
+        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D421" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A421),"",C421)</f>
+        <f aca="false">IF(OR(ISBLANK(A421),A421=" "),"",C421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C422" s="1" t="str">
+        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D422" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A422),"",C422)</f>
+        <f aca="false">IF(OR(ISBLANK(A422),A422=" "),"",C422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C423" s="1" t="str">
+        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D423" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A423),"",C423)</f>
+        <f aca="false">IF(OR(ISBLANK(A423),A423=" "),"",C423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C424" s="1" t="str">
+        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D424" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A424),"",C424)</f>
+        <f aca="false">IF(OR(ISBLANK(A424),A424=" "),"",C424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C425" s="1" t="str">
+        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D425" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A425),"",C425)</f>
+        <f aca="false">IF(OR(ISBLANK(A425),A425=" "),"",C425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C426" s="1" t="str">
+        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D426" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A426),"",C426)</f>
+        <f aca="false">IF(OR(ISBLANK(A426),A426=" "),"",C426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C427" s="1" t="str">
+        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D427" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A427),"",C427)</f>
+        <f aca="false">IF(OR(ISBLANK(A427),A427=" "),"",C427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C428" s="1" t="str">
+        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D428" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A428),"",C428)</f>
+        <f aca="false">IF(OR(ISBLANK(A428),A428=" "),"",C428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C429" s="1" t="str">
+        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D429" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A429),"",C429)</f>
+        <f aca="false">IF(OR(ISBLANK(A429),A429=" "),"",C429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C430" s="1" t="str">
+        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D430" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A430),"",C430)</f>
+        <f aca="false">IF(OR(ISBLANK(A430),A430=" "),"",C430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C431" s="1" t="str">
+        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D431" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A431),"",C431)</f>
+        <f aca="false">IF(OR(ISBLANK(A431),A431=" "),"",C431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C432" s="1" t="str">
+        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D432" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A432),"",C432)</f>
+        <f aca="false">IF(OR(ISBLANK(A432),A432=" "),"",C432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C433" s="1" t="str">
+        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D433" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A433),"",C433)</f>
+        <f aca="false">IF(OR(ISBLANK(A433),A433=" "),"",C433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C434" s="1" t="str">
+        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D434" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A434),"",C434)</f>
+        <f aca="false">IF(OR(ISBLANK(A434),A434=" "),"",C434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C435" s="1" t="str">
+        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D435" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A435),"",C435)</f>
+        <f aca="false">IF(OR(ISBLANK(A435),A435=" "),"",C435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C436" s="1" t="str">
+        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D436" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A436),"",C436)</f>
+        <f aca="false">IF(OR(ISBLANK(A436),A436=" "),"",C436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C437" s="1" t="str">
+        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D437" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A437),"",C437)</f>
+        <f aca="false">IF(OR(ISBLANK(A437),A437=" "),"",C437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C438" s="1" t="str">
+        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D438" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A438),"",C438)</f>
+        <f aca="false">IF(OR(ISBLANK(A438),A438=" "),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C439" s="1" t="str">
+        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D439" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A439),"",C439)</f>
+        <f aca="false">IF(OR(ISBLANK(A439),A439=" "),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C440" s="1" t="str">
+        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D440" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A440),"",C440)</f>
+        <f aca="false">IF(OR(ISBLANK(A440),A440=" "),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C441" s="1" t="str">
+        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D441" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A441),"",C441)</f>
+        <f aca="false">IF(OR(ISBLANK(A441),A441=" "),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C442" s="1" t="str">
+        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D442" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A442),"",C442)</f>
+        <f aca="false">IF(OR(ISBLANK(A442),A442=" "),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C443" s="1" t="str">
+        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D443" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A443),"",C443)</f>
+        <f aca="false">IF(OR(ISBLANK(A443),A443=" "),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C444" s="1" t="str">
+        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D444" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A444),"",C444)</f>
+        <f aca="false">IF(OR(ISBLANK(A444),A444=" "),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C445" s="1" t="str">
+        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D445" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A445),"",C445)</f>
+        <f aca="false">IF(OR(ISBLANK(A445),A445=" "),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C446" s="1" t="str">
+        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D446" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A446),"",C446)</f>
+        <f aca="false">IF(OR(ISBLANK(A446),A446=" "),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C447" s="1" t="str">
+        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D447" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A447),"",C447)</f>
+        <f aca="false">IF(OR(ISBLANK(A447),A447=" "),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C448" s="1" t="str">
+        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D448" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A448),"",C448)</f>
+        <f aca="false">IF(OR(ISBLANK(A448),A448=" "),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C449" s="1" t="str">
+        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D449" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A449),"",C449)</f>
+        <f aca="false">IF(OR(ISBLANK(A449),A449=" "),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C450" s="1" t="str">
+        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D450" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A450),"",C450)</f>
+        <f aca="false">IF(OR(ISBLANK(A450),A450=" "),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C451" s="1" t="str">
+        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D451" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A451),"",C451)</f>
+        <f aca="false">IF(OR(ISBLANK(A451),A451=" "),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C452" s="1" t="str">
+        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D452" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A452),"",C452)</f>
+        <f aca="false">IF(OR(ISBLANK(A452),A452=" "),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C453" s="1" t="str">
+        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D453" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A453),"",C453)</f>
+        <f aca="false">IF(OR(ISBLANK(A453),A453=" "),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C454" s="1" t="str">
+        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D454" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A454),"",C454)</f>
+        <f aca="false">IF(OR(ISBLANK(A454),A454=" "),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C455" s="1" t="str">
+        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D455" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A455),"",C455)</f>
+        <f aca="false">IF(OR(ISBLANK(A455),A455=" "),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C456" s="1" t="str">
+        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D456" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A456),"",C456)</f>
+        <f aca="false">IF(OR(ISBLANK(A456),A456=" "),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C457" s="1" t="str">
+        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D457" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A457),"",C457)</f>
+        <f aca="false">IF(OR(ISBLANK(A457),A457=" "),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C458" s="1" t="str">
+        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D458" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A458),"",C458)</f>
+        <f aca="false">IF(OR(ISBLANK(A458),A458=" "),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C459" s="1" t="str">
+        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D459" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A459),"",C459)</f>
+        <f aca="false">IF(OR(ISBLANK(A459),A459=" "),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C460" s="1" t="str">
+        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D460" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A460),"",C460)</f>
+        <f aca="false">IF(OR(ISBLANK(A460),A460=" "),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C461" s="1" t="str">
+        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D461" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A461),"",C461)</f>
+        <f aca="false">IF(OR(ISBLANK(A461),A461=" "),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C462" s="1" t="str">
+        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D462" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A462),"",C462)</f>
+        <f aca="false">IF(OR(ISBLANK(A462),A462=" "),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C463" s="1" t="str">
+        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D463" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A463),"",C463)</f>
+        <f aca="false">IF(OR(ISBLANK(A463),A463=" "),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C464" s="1" t="str">
+        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D464" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A464),"",C464)</f>
+        <f aca="false">IF(OR(ISBLANK(A464),A464=" "),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C465" s="1" t="str">
+        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D465" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A465),"",C465)</f>
+        <f aca="false">IF(OR(ISBLANK(A465),A465=" "),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C466" s="1" t="str">
+        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D466" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A466),"",C466)</f>
+        <f aca="false">IF(OR(ISBLANK(A466),A466=" "),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C467" s="1" t="str">
+        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D467" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A467),"",C467)</f>
+        <f aca="false">IF(OR(ISBLANK(A467),A467=" "),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C468" s="1" t="str">
+        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D468" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A468),"",C468)</f>
+        <f aca="false">IF(OR(ISBLANK(A468),A468=" "),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C469" s="1" t="str">
+        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D469" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A469),"",C469)</f>
+        <f aca="false">IF(OR(ISBLANK(A469),A469=" "),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C470" s="1" t="str">
+        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D470" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A470),"",C470)</f>
+        <f aca="false">IF(OR(ISBLANK(A470),A470=" "),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C471" s="1" t="str">
+        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D471" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A471),"",C471)</f>
+        <f aca="false">IF(OR(ISBLANK(A471),A471=" "),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C472" s="1" t="str">
+        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D472" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A472),"",C472)</f>
+        <f aca="false">IF(OR(ISBLANK(A472),A472=" "),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C473" s="1" t="str">
+        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D473" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A473),"",C473)</f>
+        <f aca="false">IF(OR(ISBLANK(A473),A473=" "),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C474" s="1" t="str">
+        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D474" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A474),"",C474)</f>
+        <f aca="false">IF(OR(ISBLANK(A474),A474=" "),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C475" s="1" t="str">
+        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D475" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A475),"",C475)</f>
+        <f aca="false">IF(OR(ISBLANK(A475),A475=" "),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C476" s="1" t="str">
+        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
+        <v>""</v>
+      </c>
       <c r="D476" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A476),"",C476)</f>
+        <f aca="false">IF(OR(ISBLANK(A476),A476=" "),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="1" t="str">
+        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D477" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A477),"",C477)</f>
+        <f aca="false">IF(OR(ISBLANK(A477),A477=" "),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C478" s="1" t="str">
+        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D478" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A478),"",C478)</f>
+        <f aca="false">IF(OR(ISBLANK(A478),A478=" "),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C479" s="1" t="str">
+        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D479" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A479),"",C479)</f>
+        <f aca="false">IF(OR(ISBLANK(A479),A479=" "),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C480" s="1" t="str">
+        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D480" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A480),"",C480)</f>
+        <f aca="false">IF(OR(ISBLANK(A480),A480=" "),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C481" s="1" t="str">
+        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D481" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A481),"",C481)</f>
+        <f aca="false">IF(OR(ISBLANK(A481),A481=" "),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C482" s="1" t="str">
+        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D482" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A482),"",C482)</f>
+        <f aca="false">IF(OR(ISBLANK(A482),A482=" "),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C483" s="1" t="str">
+        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D483" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A483),"",C483)</f>
+        <f aca="false">IF(OR(ISBLANK(A483),A483=" "),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C484" s="1" t="str">
+        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D484" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A484),"",C484)</f>
+        <f aca="false">IF(OR(ISBLANK(A484),A484=" "),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C485" s="1" t="str">
+        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D485" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A485),"",C485)</f>
+        <f aca="false">IF(OR(ISBLANK(A485),A485=" "),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C486" s="1" t="str">
+        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D486" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A486),"",C486)</f>
+        <f aca="false">IF(OR(ISBLANK(A486),A486=" "),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C487" s="1" t="str">
+        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D487" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A487),"",C487)</f>
+        <f aca="false">IF(OR(ISBLANK(A487),A487=" "),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C488" s="1" t="str">
+        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D488" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A488),"",C488)</f>
+        <f aca="false">IF(OR(ISBLANK(A488),A488=" "),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C489" s="1" t="str">
+        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D489" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A489),"",C489)</f>
+        <f aca="false">IF(OR(ISBLANK(A489),A489=" "),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C490" s="1" t="str">
+        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D490" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A490),"",C490)</f>
+        <f aca="false">IF(OR(ISBLANK(A490),A490=" "),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C491" s="1" t="str">
+        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
+        <v> ""</v>
+      </c>
       <c r="D491" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A491),"",C491)</f>
+        <f aca="false">IF(OR(ISBLANK(A491),A491=" "),"",C491)</f>
         <v/>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D492" s="1"/>
+      <c r="C492" s="1" t="str">
+        <f aca="false">A492 &amp;" " &amp;"""" &amp;B492 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D492" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A492),A492=" "),"",C492)</f>
+        <v/>
+      </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D493" s="1"/>
+      <c r="C493" s="1" t="str">
+        <f aca="false">A493 &amp;" " &amp;"""" &amp;B493 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D493" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A493),A493=" "),"",C493)</f>
+        <v/>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D494" s="1"/>
+      <c r="C494" s="1" t="str">
+        <f aca="false">A494 &amp;" " &amp;"""" &amp;B494 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D494" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A494),A494=" "),"",C494)</f>
+        <v/>
+      </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D495" s="1"/>
+      <c r="C495" s="1" t="str">
+        <f aca="false">A495 &amp;" " &amp;"""" &amp;B495 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D495" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A495),A495=" "),"",C495)</f>
+        <v/>
+      </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D496" s="1"/>
+      <c r="C496" s="1" t="str">
+        <f aca="false">A496 &amp;" " &amp;"""" &amp;B496 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D496" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A496),A496=" "),"",C496)</f>
+        <v/>
+      </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D497" s="1"/>
+      <c r="C497" s="1" t="str">
+        <f aca="false">A497 &amp;" " &amp;"""" &amp;B497 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D497" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A497),A497=" "),"",C497)</f>
+        <v/>
+      </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D498" s="1"/>
+      <c r="C498" s="1" t="str">
+        <f aca="false">A498 &amp;" " &amp;"""" &amp;B498 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D498" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A498),A498=" "),"",C498)</f>
+        <v/>
+      </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D499" s="1"/>
+      <c r="C499" s="1" t="str">
+        <f aca="false">A499 &amp;" " &amp;"""" &amp;B499 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D499" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A499),A499=" "),"",C499)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C500" s="1" t="str">
+        <f aca="false">A500 &amp;" " &amp;"""" &amp;B500 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D500" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A500),A500=" "),"",C500)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C501" s="1" t="str">
+        <f aca="false">A501 &amp;" " &amp;"""" &amp;B501 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D501" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A501),A501=" "),"",C501)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C502" s="1" t="str">
+        <f aca="false">A502 &amp;" " &amp;"""" &amp;B502 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D502" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A502),A502=" "),"",C502)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C503" s="1" t="str">
+        <f aca="false">A503 &amp;" " &amp;"""" &amp;B503 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D503" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A503),A503=" "),"",C503)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C504" s="1" t="str">
+        <f aca="false">A504 &amp;" " &amp;"""" &amp;B504 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D504" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A504),A504=" "),"",C504)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C505" s="1" t="str">
+        <f aca="false">A505 &amp;" " &amp;"""" &amp;B505 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D505" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A505),A505=" "),"",C505)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C506" s="1" t="str">
+        <f aca="false">A506 &amp;" " &amp;"""" &amp;B506 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D506" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A506),A506=" "),"",C506)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C507" s="1" t="str">
+        <f aca="false">A507 &amp;" " &amp;"""" &amp;B507 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D507" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A507),A507=" "),"",C507)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C508" s="1" t="str">
+        <f aca="false">A508 &amp;" " &amp;"""" &amp;B508 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D508" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A508),A508=" "),"",C508)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C509" s="1" t="str">
+        <f aca="false">A509 &amp;" " &amp;"""" &amp;B509 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D509" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A509),A509=" "),"",C509)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C510" s="1" t="str">
+        <f aca="false">A510 &amp;" " &amp;"""" &amp;B510 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D510" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A510),A510=" "),"",C510)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C511" s="1" t="str">
+        <f aca="false">A511 &amp;" " &amp;"""" &amp;B511 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D511" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A511),A511=" "),"",C511)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C512" s="1" t="str">
+        <f aca="false">A512 &amp;" " &amp;"""" &amp;B512 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D512" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A512),A512=" "),"",C512)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C513" s="1" t="str">
+        <f aca="false">A513 &amp;" " &amp;"""" &amp;B513 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D513" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A513),A513=" "),"",C513)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C514" s="1" t="str">
+        <f aca="false">A514 &amp;" " &amp;"""" &amp;B514 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D514" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A514),A514=" "),"",C514)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C515" s="1" t="str">
+        <f aca="false">A515 &amp;" " &amp;"""" &amp;B515 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D515" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A515),A515=" "),"",C515)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C516" s="1" t="str">
+        <f aca="false">A516 &amp;" " &amp;"""" &amp;B516 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D516" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A516),A516=" "),"",C516)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C517" s="1" t="str">
+        <f aca="false">A517 &amp;" " &amp;"""" &amp;B517 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D517" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A517),A517=" "),"",C517)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C518" s="1" t="str">
+        <f aca="false">A518 &amp;" " &amp;"""" &amp;B518 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D518" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A518),A518=" "),"",C518)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C519" s="1" t="str">
+        <f aca="false">A519 &amp;" " &amp;"""" &amp;B519 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D519" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A519),A519=" "),"",C519)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C520" s="1" t="str">
+        <f aca="false">A520 &amp;" " &amp;"""" &amp;B520 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D520" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A520),A520=" "),"",C520)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C521" s="1" t="str">
+        <f aca="false">A521 &amp;" " &amp;"""" &amp;B521 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D521" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A521),A521=" "),"",C521)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C522" s="1" t="str">
+        <f aca="false">A522 &amp;" " &amp;"""" &amp;B522 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D522" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A522),A522=" "),"",C522)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C523" s="1" t="str">
+        <f aca="false">A523 &amp;" " &amp;"""" &amp;B523 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D523" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A523),A523=" "),"",C523)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C524" s="1" t="str">
+        <f aca="false">A524 &amp;" " &amp;"""" &amp;B524 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D524" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A524),A524=" "),"",C524)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C525" s="1" t="str">
+        <f aca="false">A525 &amp;" " &amp;"""" &amp;B525 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D525" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A525),A525=" "),"",C525)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C526" s="1" t="str">
+        <f aca="false">A526 &amp;" " &amp;"""" &amp;B526 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D526" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A526),A526=" "),"",C526)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C527" s="1" t="str">
+        <f aca="false">A527 &amp;" " &amp;"""" &amp;B527 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D527" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A527),A527=" "),"",C527)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C528" s="1" t="str">
+        <f aca="false">A528 &amp;" " &amp;"""" &amp;B528 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D528" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A528),A528=" "),"",C528)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C529" s="1" t="str">
+        <f aca="false">A529 &amp;" " &amp;"""" &amp;B529 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D529" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A529),A529=" "),"",C529)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C530" s="1" t="str">
+        <f aca="false">A530 &amp;" " &amp;"""" &amp;B530 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D530" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A530),A530=" "),"",C530)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C531" s="1" t="str">
+        <f aca="false">A531 &amp;" " &amp;"""" &amp;B531 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D531" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A531),A531=" "),"",C531)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C532" s="1" t="str">
+        <f aca="false">A532 &amp;" " &amp;"""" &amp;B532 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D532" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A532),A532=" "),"",C532)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C533" s="1" t="str">
+        <f aca="false">A533 &amp;" " &amp;"""" &amp;B533 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D533" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A533),A533=" "),"",C533)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C534" s="1" t="str">
+        <f aca="false">A534 &amp;" " &amp;"""" &amp;B534 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D534" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A534),A534=" "),"",C534)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C535" s="1" t="str">
+        <f aca="false">A535 &amp;" " &amp;"""" &amp;B535 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D535" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A535),A535=" "),"",C535)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C536" s="1" t="str">
+        <f aca="false">A536 &amp;" " &amp;"""" &amp;B536 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D536" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A536),A536=" "),"",C536)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C537" s="1" t="str">
+        <f aca="false">A537 &amp;" " &amp;"""" &amp;B537 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D537" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A537),A537=" "),"",C537)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C538" s="1" t="str">
+        <f aca="false">A538 &amp;" " &amp;"""" &amp;B538 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D538" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A538),A538=" "),"",C538)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C539" s="1" t="str">
+        <f aca="false">A539 &amp;" " &amp;"""" &amp;B539 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D539" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A539),A539=" "),"",C539)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C540" s="1" t="str">
+        <f aca="false">A540 &amp;" " &amp;"""" &amp;B540 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D540" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A540),A540=" "),"",C540)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C541" s="1" t="str">
+        <f aca="false">A541 &amp;" " &amp;"""" &amp;B541 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D541" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A541),A541=" "),"",C541)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C542" s="1" t="str">
+        <f aca="false">A542 &amp;" " &amp;"""" &amp;B542 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D542" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A542),A542=" "),"",C542)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C543" s="1" t="str">
+        <f aca="false">A543 &amp;" " &amp;"""" &amp;B543 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D543" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A543),A543=" "),"",C543)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C544" s="1" t="str">
+        <f aca="false">A544 &amp;" " &amp;"""" &amp;B544 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D544" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A544),A544=" "),"",C544)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C545" s="1" t="str">
+        <f aca="false">A545 &amp;" " &amp;"""" &amp;B545 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D545" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A545),A545=" "),"",C545)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C546" s="1" t="str">
+        <f aca="false">A546 &amp;" " &amp;"""" &amp;B546 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D546" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A546),A546=" "),"",C546)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C547" s="1" t="str">
+        <f aca="false">A547 &amp;" " &amp;"""" &amp;B547 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D547" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A547),A547=" "),"",C547)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C548" s="1" t="str">
+        <f aca="false">A548 &amp;" " &amp;"""" &amp;B548 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D548" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A548),A548=" "),"",C548)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C549" s="1" t="str">
+        <f aca="false">A549 &amp;" " &amp;"""" &amp;B549 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D549" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A549),A549=" "),"",C549)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C550" s="1" t="str">
+        <f aca="false">A550 &amp;" " &amp;"""" &amp;B550 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D550" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A550),A550=" "),"",C550)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C551" s="1" t="str">
+        <f aca="false">A551 &amp;" " &amp;"""" &amp;B551 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D551" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A551),A551=" "),"",C551)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C552" s="1" t="str">
+        <f aca="false">A552 &amp;" " &amp;"""" &amp;B552 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D552" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A552),A552=" "),"",C552)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C553" s="1" t="str">
+        <f aca="false">A553 &amp;" " &amp;"""" &amp;B553 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D553" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A553),A553=" "),"",C553)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C554" s="1" t="str">
+        <f aca="false">A554 &amp;" " &amp;"""" &amp;B554 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D554" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A554),A554=" "),"",C554)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C555" s="1" t="str">
+        <f aca="false">A555 &amp;" " &amp;"""" &amp;B555 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D555" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A555),A555=" "),"",C555)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C556" s="1" t="str">
+        <f aca="false">A556 &amp;" " &amp;"""" &amp;B556 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D556" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A556),A556=" "),"",C556)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C557" s="1" t="str">
+        <f aca="false">A557 &amp;" " &amp;"""" &amp;B557 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D557" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A557),A557=" "),"",C557)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C558" s="1" t="str">
+        <f aca="false">A558 &amp;" " &amp;"""" &amp;B558 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D558" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A558),A558=" "),"",C558)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C559" s="1" t="str">
+        <f aca="false">A559 &amp;" " &amp;"""" &amp;B559 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D559" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A559),A559=" "),"",C559)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C560" s="1" t="str">
+        <f aca="false">A560 &amp;" " &amp;"""" &amp;B560 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D560" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A560),A560=" "),"",C560)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C561" s="1" t="str">
+        <f aca="false">A561 &amp;" " &amp;"""" &amp;B561 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D561" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A561),A561=" "),"",C561)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C562" s="1" t="str">
+        <f aca="false">A562 &amp;" " &amp;"""" &amp;B562 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D562" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A562),A562=" "),"",C562)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C563" s="1" t="str">
+        <f aca="false">A563 &amp;" " &amp;"""" &amp;B563 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D563" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A563),A563=" "),"",C563)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C564" s="1" t="str">
+        <f aca="false">A564 &amp;" " &amp;"""" &amp;B564 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D564" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A564),A564=" "),"",C564)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C565" s="1" t="str">
+        <f aca="false">A565 &amp;" " &amp;"""" &amp;B565 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D565" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A565),A565=" "),"",C565)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C566" s="1" t="str">
+        <f aca="false">A566 &amp;" " &amp;"""" &amp;B566 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D566" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A566),A566=" "),"",C566)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C567" s="1" t="str">
+        <f aca="false">A567 &amp;" " &amp;"""" &amp;B567 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D567" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A567),A567=" "),"",C567)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C568" s="1" t="str">
+        <f aca="false">A568 &amp;" " &amp;"""" &amp;B568 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D568" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A568),A568=" "),"",C568)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C569" s="1" t="str">
+        <f aca="false">A569 &amp;" " &amp;"""" &amp;B569 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D569" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A569),A569=" "),"",C569)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C570" s="1" t="str">
+        <f aca="false">A570 &amp;" " &amp;"""" &amp;B570 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D570" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A570),A570=" "),"",C570)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C571" s="1" t="str">
+        <f aca="false">A571 &amp;" " &amp;"""" &amp;B571 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D571" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A571),A571=" "),"",C571)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C572" s="1" t="str">
+        <f aca="false">A572 &amp;" " &amp;"""" &amp;B572 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D572" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A572),A572=" "),"",C572)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C573" s="1" t="str">
+        <f aca="false">A573 &amp;" " &amp;"""" &amp;B573 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D573" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A573),A573=" "),"",C573)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C574" s="1" t="str">
+        <f aca="false">A574 &amp;" " &amp;"""" &amp;B574 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D574" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A574),A574=" "),"",C574)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C575" s="1" t="str">
+        <f aca="false">A575 &amp;" " &amp;"""" &amp;B575 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D575" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A575),A575=" "),"",C575)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C576" s="1" t="str">
+        <f aca="false">A576 &amp;" " &amp;"""" &amp;B576 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D576" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A576),A576=" "),"",C576)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C577" s="1" t="str">
+        <f aca="false">A577 &amp;" " &amp;"""" &amp;B577 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D577" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A577),A577=" "),"",C577)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C578" s="1" t="str">
+        <f aca="false">A578 &amp;" " &amp;"""" &amp;B578 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D578" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A578),A578=" "),"",C578)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C579" s="1" t="str">
+        <f aca="false">A579 &amp;" " &amp;"""" &amp;B579 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D579" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A579),A579=" "),"",C579)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C580" s="1" t="str">
+        <f aca="false">A580 &amp;" " &amp;"""" &amp;B580 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D580" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A580),A580=" "),"",C580)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C581" s="1" t="str">
+        <f aca="false">A581 &amp;" " &amp;"""" &amp;B581 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D581" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A581),A581=" "),"",C581)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C582" s="1" t="str">
+        <f aca="false">A582 &amp;" " &amp;"""" &amp;B582 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D582" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A582),A582=" "),"",C582)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C583" s="1" t="str">
+        <f aca="false">A583 &amp;" " &amp;"""" &amp;B583 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D583" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A583),A583=" "),"",C583)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C584" s="1" t="str">
+        <f aca="false">A584 &amp;" " &amp;"""" &amp;B584 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D584" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A584),A584=" "),"",C584)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C585" s="1" t="str">
+        <f aca="false">A585 &amp;" " &amp;"""" &amp;B585 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D585" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A585),A585=" "),"",C585)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C586" s="1" t="str">
+        <f aca="false">A586 &amp;" " &amp;"""" &amp;B586 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D586" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A586),A586=" "),"",C586)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C587" s="1" t="str">
+        <f aca="false">A587 &amp;" " &amp;"""" &amp;B587 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D587" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A587),A587=" "),"",C587)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C588" s="1" t="str">
+        <f aca="false">A588 &amp;" " &amp;"""" &amp;B588 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D588" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A588),A588=" "),"",C588)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C589" s="1" t="str">
+        <f aca="false">A589 &amp;" " &amp;"""" &amp;B589 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D589" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A589),A589=" "),"",C589)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C590" s="1" t="str">
+        <f aca="false">A590 &amp;" " &amp;"""" &amp;B590 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D590" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A590),A590=" "),"",C590)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C591" s="1" t="str">
+        <f aca="false">A591 &amp;" " &amp;"""" &amp;B591 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D591" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A591),A591=" "),"",C591)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C592" s="1" t="str">
+        <f aca="false">A592 &amp;" " &amp;"""" &amp;B592 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D592" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A592),A592=" "),"",C592)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C593" s="1" t="str">
+        <f aca="false">A593 &amp;" " &amp;"""" &amp;B593 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D593" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A593),A593=" "),"",C593)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="1" t="str">
+        <f aca="false">A594 &amp;" " &amp;"""" &amp;B594 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D594" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A594),A594=" "),"",C594)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="1" t="str">
+        <f aca="false">A595 &amp;" " &amp;"""" &amp;B595 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D595" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A595),A595=" "),"",C595)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C596" s="1" t="str">
+        <f aca="false">A596 &amp;" " &amp;"""" &amp;B596 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D596" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A596),A596=" "),"",C596)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="1" t="str">
+        <f aca="false">A597 &amp;" " &amp;"""" &amp;B597 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D597" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A597),A597=" "),"",C597)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C598" s="1" t="str">
+        <f aca="false">A598 &amp;" " &amp;"""" &amp;B598 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D598" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A598),A598=" "),"",C598)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C599" s="1" t="str">
+        <f aca="false">A599 &amp;" " &amp;"""" &amp;B599 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D599" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A599),A599=" "),"",C599)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C600" s="1" t="str">
+        <f aca="false">A600 &amp;" " &amp;"""" &amp;B600 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D600" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A600),A600=" "),"",C600)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C601" s="1" t="str">
+        <f aca="false">A601 &amp;" " &amp;"""" &amp;B601 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D601" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A601),A601=" "),"",C601)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C602" s="1" t="str">
+        <f aca="false">A602 &amp;" " &amp;"""" &amp;B602 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D602" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A602),A602=" "),"",C602)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C603" s="1" t="str">
+        <f aca="false">A603 &amp;" " &amp;"""" &amp;B603 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D603" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A603),A603=" "),"",C603)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C604" s="1" t="str">
+        <f aca="false">A604 &amp;" " &amp;"""" &amp;B604 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D604" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A604),A604=" "),"",C604)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C605" s="1" t="str">
+        <f aca="false">A605 &amp;" " &amp;"""" &amp;B605 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D605" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A605),A605=" "),"",C605)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C606" s="1" t="str">
+        <f aca="false">A606 &amp;" " &amp;"""" &amp;B606 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D606" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A606),A606=" "),"",C606)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C607" s="1" t="str">
+        <f aca="false">A607 &amp;" " &amp;"""" &amp;B607 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D607" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A607),A607=" "),"",C607)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C608" s="1" t="str">
+        <f aca="false">A608 &amp;" " &amp;"""" &amp;B608 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D608" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A608),A608=" "),"",C608)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C609" s="1" t="str">
+        <f aca="false">A609 &amp;" " &amp;"""" &amp;B609 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D609" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A609),A609=" "),"",C609)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C610" s="1" t="str">
+        <f aca="false">A610 &amp;" " &amp;"""" &amp;B610 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D610" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A610),A610=" "),"",C610)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C611" s="1" t="str">
+        <f aca="false">A611 &amp;" " &amp;"""" &amp;B611 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D611" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A611),A611=" "),"",C611)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C612" s="1" t="str">
+        <f aca="false">A612 &amp;" " &amp;"""" &amp;B612 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D612" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A612),A612=" "),"",C612)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C613" s="1" t="str">
+        <f aca="false">A613 &amp;" " &amp;"""" &amp;B613 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D613" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A613),A613=" "),"",C613)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C614" s="1" t="str">
+        <f aca="false">A614 &amp;" " &amp;"""" &amp;B614 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D614" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A614),A614=" "),"",C614)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C615" s="1" t="str">
+        <f aca="false">A615 &amp;" " &amp;"""" &amp;B615 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D615" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A615),A615=" "),"",C615)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C616" s="1" t="str">
+        <f aca="false">A616 &amp;" " &amp;"""" &amp;B616 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D616" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A616),A616=" "),"",C616)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C617" s="1" t="str">
+        <f aca="false">A617 &amp;" " &amp;"""" &amp;B617 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D617" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A617),A617=" "),"",C617)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C618" s="1" t="str">
+        <f aca="false">A618 &amp;" " &amp;"""" &amp;B618 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D618" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A618),A618=" "),"",C618)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C619" s="1" t="str">
+        <f aca="false">A619 &amp;" " &amp;"""" &amp;B619 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D619" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A619),A619=" "),"",C619)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C620" s="1" t="str">
+        <f aca="false">A620 &amp;" " &amp;"""" &amp;B620 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D620" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A620),A620=" "),"",C620)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C621" s="1" t="str">
+        <f aca="false">A621 &amp;" " &amp;"""" &amp;B621 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D621" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A621),A621=" "),"",C621)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C622" s="1" t="str">
+        <f aca="false">A622 &amp;" " &amp;"""" &amp;B622 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D622" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A622),A622=" "),"",C622)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C623" s="1" t="str">
+        <f aca="false">A623 &amp;" " &amp;"""" &amp;B623 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D623" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A623),A623=" "),"",C623)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C624" s="1" t="str">
+        <f aca="false">A624 &amp;" " &amp;"""" &amp;B624 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D624" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A624),A624=" "),"",C624)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C625" s="1" t="str">
+        <f aca="false">A625 &amp;" " &amp;"""" &amp;B625 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D625" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A625),A625=" "),"",C625)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C626" s="1" t="str">
+        <f aca="false">A626 &amp;" " &amp;"""" &amp;B626 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D626" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A626),A626=" "),"",C626)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C627" s="1" t="str">
+        <f aca="false">A627 &amp;" " &amp;"""" &amp;B627 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D627" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A627),A627=" "),"",C627)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C628" s="1" t="str">
+        <f aca="false">A628 &amp;" " &amp;"""" &amp;B628 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D628" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A628),A628=" "),"",C628)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C629" s="1" t="str">
+        <f aca="false">A629 &amp;" " &amp;"""" &amp;B629 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D629" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A629),A629=" "),"",C629)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C630" s="1" t="str">
+        <f aca="false">A630 &amp;" " &amp;"""" &amp;B630 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D630" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A630),A630=" "),"",C630)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C631" s="1" t="str">
+        <f aca="false">A631 &amp;" " &amp;"""" &amp;B631 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D631" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A631),A631=" "),"",C631)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C632" s="1" t="str">
+        <f aca="false">A632 &amp;" " &amp;"""" &amp;B632 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D632" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A632),A632=" "),"",C632)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C633" s="1" t="str">
+        <f aca="false">A633 &amp;" " &amp;"""" &amp;B633 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D633" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A633),A633=" "),"",C633)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C634" s="1" t="str">
+        <f aca="false">A634 &amp;" " &amp;"""" &amp;B634 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D634" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A634),A634=" "),"",C634)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C635" s="1" t="str">
+        <f aca="false">A635 &amp;" " &amp;"""" &amp;B635 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D635" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A635),A635=" "),"",C635)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C636" s="1" t="str">
+        <f aca="false">A636 &amp;" " &amp;"""" &amp;B636 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D636" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A636),A636=" "),"",C636)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C637" s="1" t="str">
+        <f aca="false">A637 &amp;" " &amp;"""" &amp;B637 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D637" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A637),A637=" "),"",C637)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C638" s="1" t="str">
+        <f aca="false">A638 &amp;" " &amp;"""" &amp;B638 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D638" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A638),A638=" "),"",C638)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C639" s="1" t="str">
+        <f aca="false">A639 &amp;" " &amp;"""" &amp;B639 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D639" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A639),A639=" "),"",C639)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C640" s="1" t="str">
+        <f aca="false">A640 &amp;" " &amp;"""" &amp;B640 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D640" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A640),A640=" "),"",C640)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C641" s="1" t="str">
+        <f aca="false">A641 &amp;" " &amp;"""" &amp;B641 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D641" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A641),A641=" "),"",C641)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C642" s="1" t="str">
+        <f aca="false">A642 &amp;" " &amp;"""" &amp;B642 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D642" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A642),A642=" "),"",C642)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C643" s="1" t="str">
+        <f aca="false">A643 &amp;" " &amp;"""" &amp;B643 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D643" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A643),A643=" "),"",C643)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C644" s="1" t="str">
+        <f aca="false">A644 &amp;" " &amp;"""" &amp;B644 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D644" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A644),A644=" "),"",C644)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C645" s="1" t="str">
+        <f aca="false">A645 &amp;" " &amp;"""" &amp;B645 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D645" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A645),A645=" "),"",C645)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C646" s="1" t="str">
+        <f aca="false">A646 &amp;" " &amp;"""" &amp;B646 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D646" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A646),A646=" "),"",C646)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C647" s="1" t="str">
+        <f aca="false">A647 &amp;" " &amp;"""" &amp;B647 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D647" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A647),A647=" "),"",C647)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C648" s="1" t="str">
+        <f aca="false">A648 &amp;" " &amp;"""" &amp;B648 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D648" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A648),A648=" "),"",C648)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C649" s="1" t="str">
+        <f aca="false">A649 &amp;" " &amp;"""" &amp;B649 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D649" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A649),A649=" "),"",C649)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C650" s="1" t="str">
+        <f aca="false">A650 &amp;" " &amp;"""" &amp;B650 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D650" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A650),A650=" "),"",C650)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C651" s="1" t="str">
+        <f aca="false">A651 &amp;" " &amp;"""" &amp;B651 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D651" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A651),A651=" "),"",C651)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C652" s="1" t="str">
+        <f aca="false">A652 &amp;" " &amp;"""" &amp;B652 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D652" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A652),A652=" "),"",C652)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C653" s="1" t="str">
+        <f aca="false">A653 &amp;" " &amp;"""" &amp;B653 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D653" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A653),A653=" "),"",C653)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C654" s="1" t="str">
+        <f aca="false">A654 &amp;" " &amp;"""" &amp;B654 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D654" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A654),A654=" "),"",C654)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C655" s="1" t="str">
+        <f aca="false">A655 &amp;" " &amp;"""" &amp;B655 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D655" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A655),A655=" "),"",C655)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C656" s="1" t="str">
+        <f aca="false">A656 &amp;" " &amp;"""" &amp;B656 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D656" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A656),A656=" "),"",C656)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C657" s="1" t="str">
+        <f aca="false">A657 &amp;" " &amp;"""" &amp;B657 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D657" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A657),A657=" "),"",C657)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C658" s="1" t="str">
+        <f aca="false">A658 &amp;" " &amp;"""" &amp;B658 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D658" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A658),A658=" "),"",C658)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C659" s="1" t="str">
+        <f aca="false">A659 &amp;" " &amp;"""" &amp;B659 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D659" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A659),A659=" "),"",C659)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C660" s="1" t="str">
+        <f aca="false">A660 &amp;" " &amp;"""" &amp;B660 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D660" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A660),A660=" "),"",C660)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C661" s="1" t="str">
+        <f aca="false">A661 &amp;" " &amp;"""" &amp;B661 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D661" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A661),A661=" "),"",C661)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C662" s="1" t="str">
+        <f aca="false">A662 &amp;" " &amp;"""" &amp;B662 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D662" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A662),A662=" "),"",C662)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C663" s="1" t="str">
+        <f aca="false">A663 &amp;" " &amp;"""" &amp;B663 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D663" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A663),A663=" "),"",C663)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C664" s="1" t="str">
+        <f aca="false">A664 &amp;" " &amp;"""" &amp;B664 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D664" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A664),A664=" "),"",C664)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C665" s="1" t="str">
+        <f aca="false">A665 &amp;" " &amp;"""" &amp;B665 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D665" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A665),A665=" "),"",C665)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C666" s="1" t="str">
+        <f aca="false">A666 &amp;" " &amp;"""" &amp;B666 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D666" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A666),A666=" "),"",C666)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C667" s="1" t="str">
+        <f aca="false">A667 &amp;" " &amp;"""" &amp;B667 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D667" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A667),A667=" "),"",C667)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C668" s="1" t="str">
+        <f aca="false">A668 &amp;" " &amp;"""" &amp;B668 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D668" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A668),A668=" "),"",C668)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C669" s="1" t="str">
+        <f aca="false">A669 &amp;" " &amp;"""" &amp;B669 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D669" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A669),A669=" "),"",C669)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C670" s="1" t="str">
+        <f aca="false">A670 &amp;" " &amp;"""" &amp;B670 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D670" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A670),A670=" "),"",C670)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C671" s="1" t="str">
+        <f aca="false">A671 &amp;" " &amp;"""" &amp;B671 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D671" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A671),A671=" "),"",C671)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C672" s="1" t="str">
+        <f aca="false">A672 &amp;" " &amp;"""" &amp;B672 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D672" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A672),A672=" "),"",C672)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C673" s="1" t="str">
+        <f aca="false">A673 &amp;" " &amp;"""" &amp;B673 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D673" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A673),A673=" "),"",C673)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C674" s="1" t="str">
+        <f aca="false">A674 &amp;" " &amp;"""" &amp;B674 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D674" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A674),A674=" "),"",C674)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C675" s="1" t="str">
+        <f aca="false">A675 &amp;" " &amp;"""" &amp;B675 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D675" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A675),A675=" "),"",C675)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C676" s="1" t="str">
+        <f aca="false">A676 &amp;" " &amp;"""" &amp;B676 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D676" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A676),A676=" "),"",C676)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C677" s="1" t="str">
+        <f aca="false">A677 &amp;" " &amp;"""" &amp;B677 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D677" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A677),A677=" "),"",C677)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C678" s="1" t="str">
+        <f aca="false">A678 &amp;" " &amp;"""" &amp;B678 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D678" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A678),A678=" "),"",C678)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C679" s="1" t="str">
+        <f aca="false">A679 &amp;" " &amp;"""" &amp;B679 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D679" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A679),A679=" "),"",C679)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C680" s="1" t="str">
+        <f aca="false">A680 &amp;" " &amp;"""" &amp;B680 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D680" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A680),A680=" "),"",C680)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C681" s="1" t="str">
+        <f aca="false">A681 &amp;" " &amp;"""" &amp;B681 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D681" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A681),A681=" "),"",C681)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C682" s="1" t="str">
+        <f aca="false">A682 &amp;" " &amp;"""" &amp;B682 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D682" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A682),A682=" "),"",C682)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C683" s="1" t="str">
+        <f aca="false">A683 &amp;" " &amp;"""" &amp;B683 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D683" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A683),A683=" "),"",C683)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C684" s="1" t="str">
+        <f aca="false">A684 &amp;" " &amp;"""" &amp;B684 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D684" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A684),A684=" "),"",C684)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C685" s="1" t="str">
+        <f aca="false">A685 &amp;" " &amp;"""" &amp;B685 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D685" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A685),A685=" "),"",C685)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C686" s="1" t="str">
+        <f aca="false">A686 &amp;" " &amp;"""" &amp;B686 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D686" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A686),A686=" "),"",C686)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C687" s="1" t="str">
+        <f aca="false">A687 &amp;" " &amp;"""" &amp;B687 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D687" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A687),A687=" "),"",C687)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C688" s="1" t="str">
+        <f aca="false">A688 &amp;" " &amp;"""" &amp;B688 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D688" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A688),A688=" "),"",C688)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C689" s="1" t="str">
+        <f aca="false">A689 &amp;" " &amp;"""" &amp;B689 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D689" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A689),A689=" "),"",C689)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C690" s="1" t="str">
+        <f aca="false">A690 &amp;" " &amp;"""" &amp;B690 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D690" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A690),A690=" "),"",C690)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C691" s="1" t="str">
+        <f aca="false">A691 &amp;" " &amp;"""" &amp;B691 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D691" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A691),A691=" "),"",C691)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C692" s="1" t="str">
+        <f aca="false">A692 &amp;" " &amp;"""" &amp;B692 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D692" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A692),A692=" "),"",C692)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C693" s="1" t="str">
+        <f aca="false">A693 &amp;" " &amp;"""" &amp;B693 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D693" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A693),A693=" "),"",C693)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C694" s="1" t="str">
+        <f aca="false">A694 &amp;" " &amp;"""" &amp;B694 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D694" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A694),A694=" "),"",C694)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C695" s="1" t="str">
+        <f aca="false">A695 &amp;" " &amp;"""" &amp;B695 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D695" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A695),A695=" "),"",C695)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C696" s="1" t="str">
+        <f aca="false">A696 &amp;" " &amp;"""" &amp;B696 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D696" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A696),A696=" "),"",C696)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C697" s="1" t="str">
+        <f aca="false">A697 &amp;" " &amp;"""" &amp;B697 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D697" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A697),A697=" "),"",C697)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C698" s="1" t="str">
+        <f aca="false">A698 &amp;" " &amp;"""" &amp;B698 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D698" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A698),A698=" "),"",C698)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C699" s="1" t="str">
+        <f aca="false">A699 &amp;" " &amp;"""" &amp;B699 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D699" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A699),A699=" "),"",C699)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C700" s="1" t="str">
+        <f aca="false">A700 &amp;" " &amp;"""" &amp;B700 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D700" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A700),A700=" "),"",C700)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C701" s="1" t="str">
+        <f aca="false">A701 &amp;" " &amp;"""" &amp;B701 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D701" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A701),A701=" "),"",C701)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C702" s="1" t="str">
+        <f aca="false">A702 &amp;" " &amp;"""" &amp;B702 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D702" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A702),A702=" "),"",C702)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C703" s="1" t="str">
+        <f aca="false">A703 &amp;" " &amp;"""" &amp;B703 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D703" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A703),A703=" "),"",C703)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C704" s="1" t="str">
+        <f aca="false">A704 &amp;" " &amp;"""" &amp;B704 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D704" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A704),A704=" "),"",C704)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C705" s="1" t="str">
+        <f aca="false">A705 &amp;" " &amp;"""" &amp;B705 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D705" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A705),A705=" "),"",C705)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C706" s="1" t="str">
+        <f aca="false">A706 &amp;" " &amp;"""" &amp;B706 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D706" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A706),A706=" "),"",C706)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C707" s="1" t="str">
+        <f aca="false">A707 &amp;" " &amp;"""" &amp;B707 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D707" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A707),A707=" "),"",C707)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C708" s="1" t="str">
+        <f aca="false">A708 &amp;" " &amp;"""" &amp;B708 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D708" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A708),A708=" "),"",C708)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C709" s="1" t="str">
+        <f aca="false">A709 &amp;" " &amp;"""" &amp;B709 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D709" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A709),A709=" "),"",C709)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C710" s="1" t="str">
+        <f aca="false">A710 &amp;" " &amp;"""" &amp;B710 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D710" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A710),A710=" "),"",C710)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C711" s="1" t="str">
+        <f aca="false">A711 &amp;" " &amp;"""" &amp;B711 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D711" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A711),A711=" "),"",C711)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C712" s="1" t="str">
+        <f aca="false">A712 &amp;" " &amp;"""" &amp;B712 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D712" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A712),A712=" "),"",C712)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C713" s="1" t="str">
+        <f aca="false">A713 &amp;" " &amp;"""" &amp;B713 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D713" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A713),A713=" "),"",C713)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C714" s="1" t="str">
+        <f aca="false">A714 &amp;" " &amp;"""" &amp;B714 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D714" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A714),A714=" "),"",C714)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C715" s="1" t="str">
+        <f aca="false">A715 &amp;" " &amp;"""" &amp;B715 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D715" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A715),A715=" "),"",C715)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C716" s="1" t="str">
+        <f aca="false">A716 &amp;" " &amp;"""" &amp;B716 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D716" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A716),A716=" "),"",C716)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C717" s="1" t="str">
+        <f aca="false">A717 &amp;" " &amp;"""" &amp;B717 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D717" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A717),A717=" "),"",C717)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C718" s="1" t="str">
+        <f aca="false">A718 &amp;" " &amp;"""" &amp;B718 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D718" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A718),A718=" "),"",C718)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C719" s="1" t="str">
+        <f aca="false">A719 &amp;" " &amp;"""" &amp;B719 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D719" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A719),A719=" "),"",C719)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C720" s="1" t="str">
+        <f aca="false">A720 &amp;" " &amp;"""" &amp;B720 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D720" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A720),A720=" "),"",C720)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C721" s="1" t="str">
+        <f aca="false">A721 &amp;" " &amp;"""" &amp;B721 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D721" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A721),A721=" "),"",C721)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C722" s="1" t="str">
+        <f aca="false">A722 &amp;" " &amp;"""" &amp;B722 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D722" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A722),A722=" "),"",C722)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C723" s="1" t="str">
+        <f aca="false">A723 &amp;" " &amp;"""" &amp;B723 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D723" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A723),A723=" "),"",C723)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C724" s="1" t="str">
+        <f aca="false">A724 &amp;" " &amp;"""" &amp;B724 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D724" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A724),A724=" "),"",C724)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C725" s="1" t="str">
+        <f aca="false">A725 &amp;" " &amp;"""" &amp;B725 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D725" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A725),A725=" "),"",C725)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C726" s="1" t="str">
+        <f aca="false">A726 &amp;" " &amp;"""" &amp;B726 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D726" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A726),A726=" "),"",C726)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C727" s="1" t="str">
+        <f aca="false">A727 &amp;" " &amp;"""" &amp;B727 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D727" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A727),A727=" "),"",C727)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C728" s="1" t="str">
+        <f aca="false">A728 &amp;" " &amp;"""" &amp;B728 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D728" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A728),A728=" "),"",C728)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C729" s="1" t="str">
+        <f aca="false">A729 &amp;" " &amp;"""" &amp;B729 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D729" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A729),A729=" "),"",C729)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C730" s="1" t="str">
+        <f aca="false">A730 &amp;" " &amp;"""" &amp;B730 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D730" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A730),A730=" "),"",C730)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C731" s="1" t="str">
+        <f aca="false">A731 &amp;" " &amp;"""" &amp;B731 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D731" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A731),A731=" "),"",C731)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C732" s="1" t="str">
+        <f aca="false">A732 &amp;" " &amp;"""" &amp;B732 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D732" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A732),A732=" "),"",C732)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C733" s="1" t="str">
+        <f aca="false">A733 &amp;" " &amp;"""" &amp;B733 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D733" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A733),A733=" "),"",C733)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C734" s="1" t="str">
+        <f aca="false">A734 &amp;" " &amp;"""" &amp;B734 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D734" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A734),A734=" "),"",C734)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C735" s="1" t="str">
+        <f aca="false">A735 &amp;" " &amp;"""" &amp;B735 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D735" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A735),A735=" "),"",C735)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C736" s="1" t="str">
+        <f aca="false">A736 &amp;" " &amp;"""" &amp;B736 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D736" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A736),A736=" "),"",C736)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C737" s="1" t="str">
+        <f aca="false">A737 &amp;" " &amp;"""" &amp;B737 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D737" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A737),A737=" "),"",C737)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C738" s="1" t="str">
+        <f aca="false">A738 &amp;" " &amp;"""" &amp;B738 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D738" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A738),A738=" "),"",C738)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C739" s="1" t="str">
+        <f aca="false">A739 &amp;" " &amp;"""" &amp;B739 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D739" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A739),A739=" "),"",C739)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C740" s="1" t="str">
+        <f aca="false">A740 &amp;" " &amp;"""" &amp;B740 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D740" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A740),A740=" "),"",C740)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C741" s="1" t="str">
+        <f aca="false">A741 &amp;" " &amp;"""" &amp;B741 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D741" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A741),A741=" "),"",C741)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C742" s="1" t="str">
+        <f aca="false">A742 &amp;" " &amp;"""" &amp;B742 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D742" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A742),A742=" "),"",C742)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C743" s="1" t="str">
+        <f aca="false">A743 &amp;" " &amp;"""" &amp;B743 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D743" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A743),A743=" "),"",C743)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C744" s="1" t="str">
+        <f aca="false">A744 &amp;" " &amp;"""" &amp;B744 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D744" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A744),A744=" "),"",C744)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C745" s="1" t="str">
+        <f aca="false">A745 &amp;" " &amp;"""" &amp;B745 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D745" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A745),A745=" "),"",C745)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C746" s="1" t="str">
+        <f aca="false">A746 &amp;" " &amp;"""" &amp;B746 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D746" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A746),A746=" "),"",C746)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C747" s="1" t="str">
+        <f aca="false">A747 &amp;" " &amp;"""" &amp;B747 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D747" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A747),A747=" "),"",C747)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C748" s="1" t="str">
+        <f aca="false">A748 &amp;" " &amp;"""" &amp;B748 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D748" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A748),A748=" "),"",C748)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C749" s="1" t="str">
+        <f aca="false">A749 &amp;" " &amp;"""" &amp;B749 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D749" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A749),A749=" "),"",C749)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C750" s="1" t="str">
+        <f aca="false">A750 &amp;" " &amp;"""" &amp;B750 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D750" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A750),A750=" "),"",C750)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C751" s="1" t="str">
+        <f aca="false">A751 &amp;" " &amp;"""" &amp;B751 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D751" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A751),A751=" "),"",C751)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C752" s="1" t="str">
+        <f aca="false">A752 &amp;" " &amp;"""" &amp;B752 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D752" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A752),A752=" "),"",C752)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C753" s="1" t="str">
+        <f aca="false">A753 &amp;" " &amp;"""" &amp;B753 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D753" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A753),A753=" "),"",C753)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C754" s="1" t="str">
+        <f aca="false">A754 &amp;" " &amp;"""" &amp;B754 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D754" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A754),A754=" "),"",C754)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C755" s="1" t="str">
+        <f aca="false">A755 &amp;" " &amp;"""" &amp;B755 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D755" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A755),A755=" "),"",C755)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C756" s="1" t="str">
+        <f aca="false">A756 &amp;" " &amp;"""" &amp;B756 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D756" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A756),A756=" "),"",C756)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C757" s="1" t="str">
+        <f aca="false">A757 &amp;" " &amp;"""" &amp;B757 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D757" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A757),A757=" "),"",C757)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C758" s="1" t="str">
+        <f aca="false">A758 &amp;" " &amp;"""" &amp;B758 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D758" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A758),A758=" "),"",C758)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C759" s="1" t="str">
+        <f aca="false">A759 &amp;" " &amp;"""" &amp;B759 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D759" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A759),A759=" "),"",C759)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C760" s="1" t="str">
+        <f aca="false">A760 &amp;" " &amp;"""" &amp;B760 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D760" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A760),A760=" "),"",C760)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C761" s="1" t="str">
+        <f aca="false">A761 &amp;" " &amp;"""" &amp;B761 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D761" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A761),A761=" "),"",C761)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C762" s="1" t="str">
+        <f aca="false">A762 &amp;" " &amp;"""" &amp;B762 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D762" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A762),A762=" "),"",C762)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C763" s="1" t="str">
+        <f aca="false">A763 &amp;" " &amp;"""" &amp;B763 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D763" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A763),A763=" "),"",C763)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C764" s="1" t="str">
+        <f aca="false">A764 &amp;" " &amp;"""" &amp;B764 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D764" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A764),A764=" "),"",C764)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C765" s="1" t="str">
+        <f aca="false">A765 &amp;" " &amp;"""" &amp;B765 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D765" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A765),A765=" "),"",C765)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C766" s="1" t="str">
+        <f aca="false">A766 &amp;" " &amp;"""" &amp;B766 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D766" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A766),A766=" "),"",C766)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C767" s="1" t="str">
+        <f aca="false">A767 &amp;" " &amp;"""" &amp;B767 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D767" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A767),A767=" "),"",C767)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C768" s="1" t="str">
+        <f aca="false">A768 &amp;" " &amp;"""" &amp;B768 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D768" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A768),A768=" "),"",C768)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C769" s="1" t="str">
+        <f aca="false">A769 &amp;" " &amp;"""" &amp;B769 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D769" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A769),A769=" "),"",C769)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C770" s="1" t="str">
+        <f aca="false">A770 &amp;" " &amp;"""" &amp;B770 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D770" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A770),A770=" "),"",C770)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C771" s="1" t="str">
+        <f aca="false">A771 &amp;" " &amp;"""" &amp;B771 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D771" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A771),A771=" "),"",C771)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C772" s="1" t="str">
+        <f aca="false">A772 &amp;" " &amp;"""" &amp;B772 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D772" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A772),A772=" "),"",C772)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C773" s="1" t="str">
+        <f aca="false">A773 &amp;" " &amp;"""" &amp;B773 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D773" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A773),A773=" "),"",C773)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C774" s="1" t="str">
+        <f aca="false">A774 &amp;" " &amp;"""" &amp;B774 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D774" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A774),A774=" "),"",C774)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C775" s="1" t="str">
+        <f aca="false">A775 &amp;" " &amp;"""" &amp;B775 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D775" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A775),A775=" "),"",C775)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C776" s="1" t="str">
+        <f aca="false">A776 &amp;" " &amp;"""" &amp;B776 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D776" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A776),A776=" "),"",C776)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C777" s="1" t="str">
+        <f aca="false">A777 &amp;" " &amp;"""" &amp;B777 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D777" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A777),A777=" "),"",C777)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C778" s="1" t="str">
+        <f aca="false">A778 &amp;" " &amp;"""" &amp;B778 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D778" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A778),A778=" "),"",C778)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C779" s="1" t="str">
+        <f aca="false">A779 &amp;" " &amp;"""" &amp;B779 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D779" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A779),A779=" "),"",C779)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C780" s="1" t="str">
+        <f aca="false">A780 &amp;" " &amp;"""" &amp;B780 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D780" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A780),A780=" "),"",C780)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C781" s="1" t="str">
+        <f aca="false">A781 &amp;" " &amp;"""" &amp;B781 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D781" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A781),A781=" "),"",C781)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C782" s="1" t="str">
+        <f aca="false">A782 &amp;" " &amp;"""" &amp;B782 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D782" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A782),A782=" "),"",C782)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C783" s="1" t="str">
+        <f aca="false">A783 &amp;" " &amp;"""" &amp;B783 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D783" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A783),A783=" "),"",C783)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C784" s="1" t="str">
+        <f aca="false">A784 &amp;" " &amp;"""" &amp;B784 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D784" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A784),A784=" "),"",C784)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C785" s="1" t="str">
+        <f aca="false">A785 &amp;" " &amp;"""" &amp;B785 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D785" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A785),A785=" "),"",C785)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C786" s="1" t="str">
+        <f aca="false">A786 &amp;" " &amp;"""" &amp;B786 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D786" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A786),A786=" "),"",C786)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C787" s="1" t="str">
+        <f aca="false">A787 &amp;" " &amp;"""" &amp;B787 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D787" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A787),A787=" "),"",C787)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C788" s="1" t="str">
+        <f aca="false">A788 &amp;" " &amp;"""" &amp;B788 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D788" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A788),A788=" "),"",C788)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C789" s="1" t="str">
+        <f aca="false">A789 &amp;" " &amp;"""" &amp;B789 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D789" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A789),A789=" "),"",C789)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C790" s="1" t="str">
+        <f aca="false">A790 &amp;" " &amp;"""" &amp;B790 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D790" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A790),A790=" "),"",C790)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C791" s="1" t="str">
+        <f aca="false">A791 &amp;" " &amp;"""" &amp;B791 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D791" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A791),A791=" "),"",C791)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C792" s="1" t="str">
+        <f aca="false">A792 &amp;" " &amp;"""" &amp;B792 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D792" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A792),A792=" "),"",C792)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C793" s="1" t="str">
+        <f aca="false">A793 &amp;" " &amp;"""" &amp;B793 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D793" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A793),A793=" "),"",C793)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C794" s="1" t="str">
+        <f aca="false">A794 &amp;" " &amp;"""" &amp;B794 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D794" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A794),A794=" "),"",C794)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C795" s="1" t="str">
+        <f aca="false">A795 &amp;" " &amp;"""" &amp;B795 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D795" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A795),A795=" "),"",C795)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C796" s="1" t="str">
+        <f aca="false">A796 &amp;" " &amp;"""" &amp;B796 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D796" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A796),A796=" "),"",C796)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C797" s="1" t="str">
+        <f aca="false">A797 &amp;" " &amp;"""" &amp;B797 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D797" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A797),A797=" "),"",C797)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C798" s="1" t="str">
+        <f aca="false">A798 &amp;" " &amp;"""" &amp;B798 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D798" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A798),A798=" "),"",C798)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C799" s="1" t="str">
+        <f aca="false">A799 &amp;" " &amp;"""" &amp;B799 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D799" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A799),A799=" "),"",C799)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C800" s="1" t="str">
+        <f aca="false">A800 &amp;" " &amp;"""" &amp;B800 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D800" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A800),A800=" "),"",C800)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C801" s="1" t="str">
+        <f aca="false">A801 &amp;" " &amp;"""" &amp;B801 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D801" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A801),A801=" "),"",C801)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C802" s="1" t="str">
+        <f aca="false">A802 &amp;" " &amp;"""" &amp;B802 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D802" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A802),A802=" "),"",C802)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C803" s="1" t="str">
+        <f aca="false">A803 &amp;" " &amp;"""" &amp;B803 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D803" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A803),A803=" "),"",C803)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C804" s="1" t="str">
+        <f aca="false">A804 &amp;" " &amp;"""" &amp;B804 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D804" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A804),A804=" "),"",C804)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C805" s="1" t="str">
+        <f aca="false">A805 &amp;" " &amp;"""" &amp;B805 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D805" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A805),A805=" "),"",C805)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C806" s="1" t="str">
+        <f aca="false">A806 &amp;" " &amp;"""" &amp;B806 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D806" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A806),A806=" "),"",C806)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C807" s="1" t="str">
+        <f aca="false">A807 &amp;" " &amp;"""" &amp;B807 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D807" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A807),A807=" "),"",C807)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C808" s="1" t="str">
+        <f aca="false">A808 &amp;" " &amp;"""" &amp;B808 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D808" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A808),A808=" "),"",C808)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C809" s="1" t="str">
+        <f aca="false">A809 &amp;" " &amp;"""" &amp;B809 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D809" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A809),A809=" "),"",C809)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C810" s="1" t="str">
+        <f aca="false">A810 &amp;" " &amp;"""" &amp;B810 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D810" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A810),A810=" "),"",C810)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C811" s="1" t="str">
+        <f aca="false">A811 &amp;" " &amp;"""" &amp;B811 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D811" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A811),A811=" "),"",C811)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C812" s="1" t="str">
+        <f aca="false">A812 &amp;" " &amp;"""" &amp;B812 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D812" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A812),A812=" "),"",C812)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C813" s="1" t="str">
+        <f aca="false">A813 &amp;" " &amp;"""" &amp;B813 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D813" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A813),A813=" "),"",C813)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C814" s="1" t="str">
+        <f aca="false">A814 &amp;" " &amp;"""" &amp;B814 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D814" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A814),A814=" "),"",C814)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C815" s="1" t="str">
+        <f aca="false">A815 &amp;" " &amp;"""" &amp;B815 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D815" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A815),A815=" "),"",C815)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C816" s="1" t="str">
+        <f aca="false">A816 &amp;" " &amp;"""" &amp;B816 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D816" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A816),A816=" "),"",C816)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C817" s="1" t="str">
+        <f aca="false">A817 &amp;" " &amp;"""" &amp;B817 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D817" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A817),A817=" "),"",C817)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C818" s="1" t="str">
+        <f aca="false">A818 &amp;" " &amp;"""" &amp;B818 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D818" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A818),A818=" "),"",C818)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C819" s="1" t="str">
+        <f aca="false">A819 &amp;" " &amp;"""" &amp;B819 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D819" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A819),A819=" "),"",C819)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C820" s="1" t="str">
+        <f aca="false">A820 &amp;" " &amp;"""" &amp;B820 &amp;""""</f>
+        <v> ""</v>
+      </c>
+      <c r="D820" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A820),A820=" "),"",C820)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
